--- a/GRE/Roadmap/Practice.xlsx
+++ b/GRE/Roadmap/Practice.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7650" windowWidth="22260" windowHeight="12645" tabRatio="333" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="8550" windowWidth="22260" windowHeight="12645" tabRatio="556" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Manhattan" sheetId="2" r:id="rId2"/>
     <sheet name="Guide_Problem_sets" sheetId="3" r:id="rId3"/>
     <sheet name="ETS" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="220">
   <si>
     <t>Number</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Mahattan 5lb</t>
   </si>
   <si>
-    <t>Arithematic (Q21-38)</t>
-  </si>
-  <si>
     <t>Arithematic (Q1-20)</t>
   </si>
   <si>
@@ -171,15 +168,9 @@
     <t>tets_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Algebra </t>
-  </si>
-  <si>
     <t>neg integers, wrong plugging, comprehension</t>
   </si>
   <si>
-    <t>Inequalities and Absolutes</t>
-  </si>
-  <si>
     <t>test_7</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t xml:space="preserve">C E G I </t>
   </si>
   <si>
-    <t>Functions, Formulas &amp; seq</t>
-  </si>
-  <si>
     <t>test_8</t>
   </si>
   <si>
@@ -408,9 +396,6 @@
     <t>WEEK_03</t>
   </si>
   <si>
-    <t>Fractions and Decimals</t>
-  </si>
-  <si>
     <t>test_9</t>
   </si>
   <si>
@@ -478,6 +463,225 @@
   </si>
   <si>
     <t>20(2)</t>
+  </si>
+  <si>
+    <t>6&lt;x&lt;14</t>
+  </si>
+  <si>
+    <t>4(3)</t>
+  </si>
+  <si>
+    <t>16(3)</t>
+  </si>
+  <si>
+    <t>48(3)</t>
+  </si>
+  <si>
+    <t>chap_3</t>
+  </si>
+  <si>
+    <t>chap_4</t>
+  </si>
+  <si>
+    <t>3/x</t>
+  </si>
+  <si>
+    <t>6_5</t>
+  </si>
+  <si>
+    <t>2_54</t>
+  </si>
+  <si>
+    <t>Chap_5</t>
+  </si>
+  <si>
+    <t>120*pi</t>
+  </si>
+  <si>
+    <t>56pi</t>
+  </si>
+  <si>
+    <t>8h_10mins</t>
+  </si>
+  <si>
+    <t>(20k)/pi</t>
+  </si>
+  <si>
+    <t>2pi</t>
+  </si>
+  <si>
+    <t>13(2)*pi/4</t>
+  </si>
+  <si>
+    <t>Chap_6</t>
+  </si>
+  <si>
+    <t>(e,d),(d,c),(f,e)</t>
+  </si>
+  <si>
+    <t>Chap_7</t>
+  </si>
+  <si>
+    <t>(0,7)</t>
+  </si>
+  <si>
+    <t>(-20,0)</t>
+  </si>
+  <si>
+    <t>(0,4)</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>II_IV</t>
+  </si>
+  <si>
+    <t>I_II</t>
+  </si>
+  <si>
+    <t>y=2x/3+6</t>
+  </si>
+  <si>
+    <t>(5,-3)</t>
+  </si>
+  <si>
+    <t>A B C G</t>
+  </si>
+  <si>
+    <t>B D</t>
+  </si>
+  <si>
+    <t>A C D</t>
+  </si>
+  <si>
+    <t>11_8</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>C D F G</t>
+  </si>
+  <si>
+    <t>48/(3)</t>
+  </si>
+  <si>
+    <t>hard indeed</t>
+  </si>
+  <si>
+    <t>test_10</t>
+  </si>
+  <si>
+    <t>_(61)</t>
+  </si>
+  <si>
+    <t>comprehension</t>
+  </si>
+  <si>
+    <t>test_11</t>
+  </si>
+  <si>
+    <t>comprehension, wrong assumptions</t>
+  </si>
+  <si>
+    <t>test_12</t>
+  </si>
+  <si>
+    <t>Conceptual gaps-&gt;similar triangles, ignoring transversal, optimization</t>
+  </si>
+  <si>
+    <t>10|Functions, Formulas &amp; seq</t>
+  </si>
+  <si>
+    <t>11|Fractions and Decimals</t>
+  </si>
+  <si>
+    <t>25|Polygons &amp; Rect. Solids</t>
+  </si>
+  <si>
+    <t>26|Circles &amp; Cylinders</t>
+  </si>
+  <si>
+    <t>27|Triangles</t>
+  </si>
+  <si>
+    <t>07|Arithematic (Q21-38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08|Algebra </t>
+  </si>
+  <si>
+    <t>09|Inequalities and Absolutes</t>
+  </si>
+  <si>
+    <t>Chapter &amp; Names</t>
+  </si>
+  <si>
+    <t>4_Divisibility &amp; Primes</t>
+  </si>
+  <si>
+    <t>Chap_2</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chap_3</t>
+  </si>
+  <si>
+    <t>Chap_4</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>1_32</t>
+  </si>
+  <si>
+    <t>40^4</t>
+  </si>
+  <si>
+    <t>3^8+4^12</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>1/Y</t>
+  </si>
+  <si>
+    <t>Chap_8</t>
+  </si>
+  <si>
+    <t>CBT</t>
+  </si>
+  <si>
+    <t>MBT</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>A B</t>
+  </si>
+  <si>
+    <t>Manhattan 5lb</t>
+  </si>
+  <si>
+    <t>test_13</t>
+  </si>
+  <si>
+    <t>13|Divisibility and Primes</t>
   </si>
 </sst>
 </file>
@@ -545,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -575,6 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,13 +1108,13 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>25</v>
@@ -919,19 +1124,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -989,14 +1194,14 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G14" si="0">D4/(D4+E4+F4)*100</f>
+        <f t="shared" ref="G4:G17" si="0">D4/(D4+E4+F4)*100</f>
         <v>75</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1063,19 +1268,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1104,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,10 +1336,10 @@
         <v>36</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1164,7 +1369,7 @@
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,23 +1399,23 @@
         <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="A12" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1239,12 +1444,12 @@
         <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2">
         <v>44551</v>
@@ -1266,7 +1471,123 @@
         <v>36</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44554</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
+      <c r="K15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>11</v>
+      </c>
+      <c r="B16" s="12">
+        <v>44554</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="11">
+        <v>31</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>91.17647058823529</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>12</v>
+      </c>
+      <c r="B17" s="12">
+        <v>44554</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="11">
+        <v>45</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>80.357142857142861</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44557</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1299,22 +1620,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G14">
+  <conditionalFormatting sqref="G13:G17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="70"/>
+        <cfvo type="num" val="90"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="70"/>
-        <cfvo type="num" val="90"/>
-        <cfvo type="num" val="100"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -1328,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,11 +1663,11 @@
     <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1361,36 +1682,48 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>126</v>
+      <c r="G1" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>125</v>
+        <v>65</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1736,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
@@ -1416,19 +1749,31 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="23"/>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1441,7 +1786,7 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="4"/>
       <c r="I3">
         <v>1</v>
@@ -1452,19 +1797,31 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="22"/>
+      <c r="L3" s="23"/>
       <c r="M3" t="s">
         <v>13</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="23"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1834,7 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="3">
         <v>118</v>
       </c>
@@ -1490,19 +1847,31 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="M4" t="s">
         <v>13</v>
       </c>
       <c r="N4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1515,7 +1884,7 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="3">
         <v>12</v>
       </c>
@@ -1529,17 +1898,29 @@
       <c r="K5">
         <v>37</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="4"/>
       <c r="N5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1552,7 +1933,7 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1565,17 +1946,29 @@
       <c r="K6">
         <v>720</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="4"/>
       <c r="N6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1981,7 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7">
         <v>7.5</v>
       </c>
@@ -1601,19 +1994,31 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1626,7 +2031,7 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" t="s">
         <v>10</v>
       </c>
@@ -1639,19 +2044,31 @@
       <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +2081,7 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="23"/>
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -1677,19 +2094,31 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="O9" s="3">
+        <v>358</v>
+      </c>
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +2131,7 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -1715,19 +2144,31 @@
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" t="s">
         <v>13</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>10</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11">
         <v>7.4</v>
       </c>
@@ -1740,7 +2181,7 @@
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="23"/>
       <c r="H11">
         <v>144</v>
       </c>
@@ -1753,19 +2194,31 @@
       <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" t="s">
         <v>11</v>
       </c>
       <c r="N11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +2231,7 @@
       <c r="F12">
         <v>216</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
       <c r="H12" t="s">
         <v>21</v>
       </c>
@@ -1786,22 +2239,34 @@
         <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" t="s">
         <v>13</v>
       </c>
       <c r="N12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3">
         <v>143</v>
@@ -1810,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" t="s">
         <v>11</v>
       </c>
@@ -1823,19 +2288,31 @@
       <c r="K13" s="3">
         <v>19.312000000000001</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" t="s">
         <v>11</v>
       </c>
       <c r="N13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3">
         <v>2</v>
       </c>
@@ -1848,7 +2325,7 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="23"/>
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -1861,19 +2338,29 @@
       <c r="K14">
         <v>43</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +2373,7 @@
       <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1899,25 +2386,37 @@
       <c r="K15">
         <v>15</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="23"/>
       <c r="H16" t="s">
         <v>10</v>
       </c>
@@ -1928,21 +2427,33 @@
         <v>10</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="L16" s="23"/>
       <c r="M16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="23"/>
       <c r="H17" t="s">
         <v>11</v>
       </c>
@@ -1961,21 +2472,30 @@
         <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="L17" s="23"/>
       <c r="M17" t="s">
         <v>12</v>
       </c>
       <c r="N17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -1983,7 +2503,7 @@
         <v>9</v>
       </c>
       <c r="F18"/>
-      <c r="G18" s="22"/>
+      <c r="G18" s="23"/>
       <c r="H18" t="s">
         <v>11</v>
       </c>
@@ -1996,19 +2516,28 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2545,7 @@
         <v>11</v>
       </c>
       <c r="F19"/>
-      <c r="G19" s="22"/>
+      <c r="G19" s="23"/>
       <c r="H19" t="s">
         <v>12</v>
       </c>
@@ -2025,24 +2554,33 @@
         <v>-5.4</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="22"/>
+      <c r="L19" s="23"/>
       <c r="M19" t="s">
         <v>12</v>
       </c>
       <c r="N19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="3">
+        <v>4096</v>
+      </c>
+      <c r="P19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
@@ -2050,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="22"/>
+      <c r="G20" s="23"/>
       <c r="I20">
         <v>30</v>
       </c>
@@ -2060,19 +2598,28 @@
       <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -2080,34 +2627,43 @@
         <v>13</v>
       </c>
       <c r="F21"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="23"/>
       <c r="I21">
         <v>9</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="23"/>
       <c r="I22">
         <v>3</v>
       </c>
@@ -2117,24 +2673,33 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="22"/>
+      <c r="L22" s="23"/>
       <c r="M22" t="s">
         <v>11</v>
       </c>
       <c r="N22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="23"/>
       <c r="I23">
         <v>1</v>
       </c>
@@ -2144,24 +2709,33 @@
       <c r="K23" s="3">
         <v>270</v>
       </c>
-      <c r="L23" s="22"/>
+      <c r="L23" s="23"/>
       <c r="M23" t="s">
         <v>11</v>
       </c>
       <c r="N23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="22"/>
+      <c r="G24" s="23"/>
       <c r="I24" s="3">
         <v>12</v>
       </c>
@@ -2171,24 +2745,33 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" t="s">
         <v>12</v>
       </c>
       <c r="N24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="22"/>
+      <c r="G25" s="23"/>
       <c r="I25" t="s">
         <v>12</v>
       </c>
@@ -2198,24 +2781,33 @@
       <c r="K25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="22"/>
+      <c r="G26" s="23"/>
       <c r="I26" t="s">
         <v>13</v>
       </c>
@@ -2225,24 +2817,33 @@
       <c r="K26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" t="s">
         <v>13</v>
       </c>
       <c r="N26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="3">
+        <v>30</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="22"/>
+      <c r="G27" s="23"/>
       <c r="I27" s="8" t="s">
         <v>10</v>
       </c>
@@ -2250,24 +2851,33 @@
         <v>11</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="22"/>
+      <c r="L27" s="23"/>
       <c r="M27" t="s">
         <v>21</v>
       </c>
       <c r="N27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="22"/>
+      <c r="G28" s="23"/>
       <c r="I28" s="8" t="s">
         <v>11</v>
       </c>
@@ -2275,24 +2885,31 @@
         <v>10</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="22"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="22"/>
+      <c r="G29" s="23"/>
       <c r="I29" s="8" t="s">
         <v>11</v>
       </c>
@@ -2302,22 +2919,31 @@
       <c r="K29">
         <v>1778</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="4"/>
       <c r="N29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="O29" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="22"/>
+      <c r="G30" s="23"/>
       <c r="I30" s="8" t="s">
         <v>12</v>
       </c>
@@ -2327,24 +2953,33 @@
       <c r="K30" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="22"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="22"/>
+      <c r="G31" s="23"/>
       <c r="I31" s="9" t="s">
         <v>13</v>
       </c>
@@ -2354,24 +2989,33 @@
       <c r="K31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="22"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="22"/>
+      <c r="G32" s="23"/>
       <c r="I32" s="9" t="s">
         <v>13</v>
       </c>
@@ -2379,24 +3023,33 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="22"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="5" t="s">
         <v>11</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="22"/>
+      <c r="G33" s="23"/>
       <c r="I33" s="9" t="s">
         <v>13</v>
       </c>
@@ -2406,51 +3059,61 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="22"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="22"/>
+      <c r="G34" s="23"/>
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="22"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="22"/>
+      <c r="G35" s="23"/>
       <c r="I35" s="8" t="s">
         <v>12</v>
       </c>
@@ -2460,24 +3123,30 @@
       <c r="K35" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="22"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="22"/>
+      <c r="G36" s="23"/>
       <c r="I36" s="8" t="s">
         <v>10</v>
       </c>
@@ -2487,24 +3156,27 @@
       <c r="K36" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="22"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="22"/>
+      <c r="G37" s="23"/>
       <c r="I37" s="8" t="s">
         <v>10</v>
       </c>
@@ -2514,24 +3186,27 @@
       <c r="K37" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="22"/>
+      <c r="G38" s="23"/>
       <c r="I38" s="9" t="s">
         <v>10</v>
       </c>
@@ -2541,24 +3216,27 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="22"/>
+      <c r="L38" s="23"/>
       <c r="M38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q38" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="22"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="22"/>
+      <c r="G39" s="23"/>
       <c r="I39" s="8" t="s">
         <v>12</v>
       </c>
@@ -2568,24 +3246,27 @@
       <c r="K39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="22"/>
+      <c r="L39" s="23"/>
       <c r="M39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="22"/>
+      <c r="G40" s="23"/>
       <c r="I40" s="8" t="s">
         <v>10</v>
       </c>
@@ -2595,24 +3276,25 @@
       <c r="K40" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="22"/>
+      <c r="L40" s="23"/>
       <c r="M40" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="22"/>
+      <c r="G41" s="23"/>
       <c r="I41" s="8" t="s">
         <v>12</v>
       </c>
@@ -2622,24 +3304,27 @@
       <c r="K41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="22"/>
+      <c r="L41" s="23"/>
       <c r="M41" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="22"/>
+      <c r="G42" s="23"/>
       <c r="I42" s="9" t="s">
         <v>13</v>
       </c>
@@ -2649,24 +3334,27 @@
       <c r="K42" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="22"/>
+      <c r="L42" s="23"/>
       <c r="M42" s="18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="22"/>
+      <c r="G43" s="23"/>
       <c r="I43">
         <v>-3</v>
       </c>
@@ -2676,24 +3364,27 @@
       <c r="K43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="22"/>
+      <c r="L43" s="23"/>
       <c r="M43" s="18" t="s">
         <v>10</v>
       </c>
       <c r="N43" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="22"/>
+      <c r="G44" s="23"/>
       <c r="I44">
         <v>6</v>
       </c>
@@ -2703,51 +3394,55 @@
       <c r="K44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="22"/>
+      <c r="L44" s="23"/>
       <c r="M44" s="18" t="s">
         <v>11</v>
       </c>
       <c r="N44" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="22"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="22"/>
+      <c r="G45" s="23"/>
       <c r="I45">
         <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="22"/>
+      <c r="L45" s="23"/>
       <c r="M45" s="20" t="s">
         <v>13</v>
       </c>
       <c r="N45" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="22"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="22"/>
+      <c r="G46" s="23"/>
       <c r="I46" t="s">
         <v>10</v>
       </c>
@@ -2755,24 +3450,25 @@
       <c r="K46" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="22"/>
+      <c r="L46" s="23"/>
       <c r="M46" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N46" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="22"/>
+      <c r="G47" s="23"/>
       <c r="I47" s="5" t="s">
         <v>14</v>
       </c>
@@ -2782,24 +3478,27 @@
       <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="22"/>
+      <c r="L47" s="23"/>
       <c r="M47" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N47" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="22"/>
+      <c r="G48" s="23"/>
       <c r="I48" t="s">
         <v>10</v>
       </c>
@@ -2807,24 +3506,27 @@
         <v>13</v>
       </c>
       <c r="K48" s="4"/>
-      <c r="L48" s="22"/>
+      <c r="L48" s="23"/>
       <c r="M48" s="20" t="s">
         <v>10</v>
       </c>
       <c r="N48" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="22"/>
+      <c r="G49" s="23"/>
       <c r="I49" t="s">
         <v>12</v>
       </c>
@@ -2834,24 +3536,27 @@
       <c r="K49" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="22"/>
+      <c r="L49" s="23"/>
       <c r="M49" s="18" t="s">
         <v>11</v>
       </c>
       <c r="N49" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="22"/>
+      <c r="G50" s="23"/>
       <c r="I50" t="s">
         <v>13</v>
       </c>
@@ -2861,24 +3566,27 @@
       <c r="K50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="22"/>
+      <c r="L50" s="23"/>
       <c r="M50" s="20" t="s">
         <v>21</v>
       </c>
       <c r="N50" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="22"/>
+      <c r="G51" s="23"/>
       <c r="I51" t="s">
         <v>10</v>
       </c>
@@ -2886,24 +3594,27 @@
         <v>12</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="22"/>
+      <c r="L51" s="23"/>
       <c r="M51" s="18" t="s">
         <v>21</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="22"/>
+      <c r="G52" s="23"/>
       <c r="I52" t="s">
         <v>12</v>
       </c>
@@ -2913,24 +3624,27 @@
       <c r="K52" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="22"/>
+      <c r="L52" s="23"/>
       <c r="M52" s="20" t="s">
         <v>11</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="22"/>
+      <c r="G53" s="23"/>
       <c r="I53" t="s">
         <v>10</v>
       </c>
@@ -2940,18 +3654,21 @@
       <c r="K53" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="22"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L53" s="23"/>
+      <c r="Q53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="22"/>
+      <c r="G54" s="23"/>
       <c r="I54" t="s">
         <v>21</v>
       </c>
@@ -2961,18 +3678,21 @@
       <c r="K54" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="22"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L54" s="23"/>
+      <c r="Q54" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="22"/>
+      <c r="G55" s="23"/>
       <c r="I55">
         <v>12.5</v>
       </c>
@@ -2982,18 +3702,21 @@
       <c r="K55" t="s">
         <v>13</v>
       </c>
-      <c r="L55" s="22"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L55" s="23"/>
+      <c r="Q55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="22"/>
+      <c r="G56" s="23"/>
       <c r="I56" s="3">
         <v>9</v>
       </c>
@@ -3003,223 +3726,227 @@
       <c r="K56" t="s">
         <v>13</v>
       </c>
-      <c r="L56" s="22"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L56" s="23"/>
+      <c r="Q56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="23"/>
       <c r="F57"/>
-      <c r="G57" s="22"/>
+      <c r="G57" s="23"/>
       <c r="K57" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="22"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L57" s="23"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="22"/>
+      <c r="B58" s="23"/>
       <c r="F58"/>
-      <c r="G58" s="22"/>
+      <c r="G58" s="23"/>
       <c r="K58" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="22"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="23"/>
       <c r="F59"/>
-      <c r="G59" s="22"/>
+      <c r="G59" s="23"/>
       <c r="K59" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="22"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L59" s="23"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="23"/>
       <c r="F60"/>
-      <c r="G60" s="22"/>
+      <c r="G60" s="23"/>
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60" s="22"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L60" s="23"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="22"/>
+      <c r="B61" s="23"/>
       <c r="F61"/>
-      <c r="G61" s="22"/>
+      <c r="G61" s="23"/>
       <c r="K61">
         <v>2</v>
       </c>
-      <c r="L61" s="22"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L61" s="23"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="22"/>
+      <c r="B62" s="23"/>
       <c r="F62"/>
-      <c r="G62" s="22"/>
+      <c r="G62" s="23"/>
       <c r="K62" s="3">
         <v>24</v>
       </c>
-      <c r="L62" s="22"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="22"/>
+      <c r="B63" s="23"/>
       <c r="F63"/>
-      <c r="G63" s="22"/>
+      <c r="G63" s="23"/>
       <c r="K63" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="22"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="22"/>
+      <c r="B64" s="23"/>
       <c r="F64"/>
-      <c r="G64" s="22"/>
+      <c r="G64" s="23"/>
       <c r="K64" s="3">
         <v>25</v>
       </c>
-      <c r="L64" s="22"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="23"/>
       <c r="F65"/>
-      <c r="G65" s="22"/>
+      <c r="G65" s="23"/>
       <c r="K65">
         <v>317</v>
       </c>
-      <c r="L65" s="22"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="22"/>
+      <c r="B66" s="23"/>
       <c r="F66"/>
-      <c r="G66" s="22"/>
+      <c r="G66" s="23"/>
       <c r="K66" s="3">
         <v>2</v>
       </c>
-      <c r="L66" s="22"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="22"/>
+      <c r="B67" s="23"/>
       <c r="F67"/>
-      <c r="G67" s="22"/>
+      <c r="G67" s="23"/>
       <c r="K67">
         <v>11</v>
       </c>
-      <c r="L67" s="22"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="22"/>
+      <c r="B68" s="23"/>
       <c r="F68"/>
-      <c r="G68" s="22"/>
+      <c r="G68" s="23"/>
       <c r="K68" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="22"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="22"/>
+      <c r="B69" s="23"/>
       <c r="F69"/>
-      <c r="G69" s="22"/>
+      <c r="G69" s="23"/>
       <c r="K69" t="s">
         <v>10</v>
       </c>
-      <c r="L69" s="22"/>
+      <c r="L69" s="23"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="22"/>
+      <c r="B70" s="23"/>
       <c r="F70"/>
-      <c r="G70" s="22"/>
+      <c r="G70" s="23"/>
       <c r="K70" t="s">
         <v>10</v>
       </c>
-      <c r="L70" s="22"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="22"/>
+      <c r="B71" s="23"/>
       <c r="F71"/>
-      <c r="G71" s="22"/>
+      <c r="G71" s="23"/>
       <c r="K71" t="s">
         <v>13</v>
       </c>
-      <c r="L71" s="22"/>
+      <c r="L71" s="23"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="22"/>
+      <c r="B72" s="23"/>
       <c r="F72"/>
-      <c r="G72" s="22"/>
+      <c r="G72" s="23"/>
       <c r="K72" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="22"/>
+      <c r="L72" s="23"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="22"/>
+      <c r="B73" s="23"/>
       <c r="F73"/>
-      <c r="G73" s="22"/>
+      <c r="G73" s="23"/>
       <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="L73" s="22"/>
+      <c r="L73" s="23"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="22"/>
+      <c r="B74" s="23"/>
       <c r="F74"/>
-      <c r="G74" s="22"/>
+      <c r="G74" s="23"/>
       <c r="K74" t="s">
         <v>10</v>
       </c>
-      <c r="L74" s="22"/>
+      <c r="L74" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3234,50 +3961,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="23"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2">
         <v>44547</v>
@@ -3291,41 +4035,140 @@
       <c r="H2" s="2">
         <v>44548</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="2">
         <v>44553</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="6" t="s">
+      <c r="K2" s="2">
+        <v>44553</v>
+      </c>
+      <c r="L2" s="2">
+        <v>44553</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44553</v>
+      </c>
+      <c r="N2" s="2">
+        <v>44553</v>
+      </c>
+      <c r="O2" s="2">
+        <v>44553</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44554</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>44554</v>
+      </c>
+      <c r="R2" s="2">
+        <v>44555</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="T2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="U2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="V2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="W2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="X2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>44556</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" s="23"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +4176,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -3344,16 +4187,59 @@
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="23"/>
       <c r="J4">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5">
+      <c r="K4">
+        <v>54</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4">
+        <v>11</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="V4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4">
+        <v>9</v>
+      </c>
+      <c r="X4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" s="23"/>
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -3361,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3372,16 +4258,57 @@
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="23"/>
       <c r="J5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6">
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>201</v>
+      </c>
+      <c r="S5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T5">
+        <v>-18</v>
+      </c>
+      <c r="U5">
+        <v>49</v>
+      </c>
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" t="s">
+        <v>209</v>
+      </c>
+      <c r="X5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -3400,16 +4327,59 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6">
+      <c r="I6" s="23"/>
+      <c r="J6" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7">
+      <c r="K6" s="3">
+        <v>25</v>
+      </c>
+      <c r="L6" s="5">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>200</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6">
+        <v>-3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>207</v>
+      </c>
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>19.5</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" s="23"/>
       <c r="C7">
         <v>-15</v>
       </c>
@@ -3426,44 +4396,124 @@
         <v>75</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="22"/>
-      <c r="J7">
+      <c r="I7" s="23"/>
+      <c r="J7" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8">
+      <c r="K7">
+        <v>1700</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7">
+        <v>-2</v>
+      </c>
+      <c r="U7">
+        <v>-12</v>
+      </c>
+      <c r="W7">
+        <v>52</v>
+      </c>
+      <c r="X7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9">
+        <v>146</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" t="s">
+        <v>168</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>181</v>
+      </c>
+      <c r="R8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
+      <c r="B9" s="23"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -3482,13 +4532,53 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10">
+      <c r="I9" s="23"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9">
+        <v>102</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="W9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>7</v>
       </c>
+      <c r="B10" s="23"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -3507,13 +4597,55 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11">
+      <c r="I10" s="23"/>
+      <c r="J10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10">
         <v>8</v>
       </c>
+      <c r="R10" t="s">
+        <v>200</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="U10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -3530,13 +4662,50 @@
         <v>10</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12">
+      <c r="I11" s="23"/>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>315</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>9</v>
       </c>
+      <c r="B12" s="23"/>
       <c r="C12">
         <v>-1</v>
       </c>
@@ -3550,18 +4719,57 @@
         <v>11</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13">
-        <v>10</v>
-      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12">
+        <v>105</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="23"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -3577,18 +4785,55 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14">
-        <v>11</v>
-      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" t="s">
+        <v>172</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="R13" t="s">
+        <v>201</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="23"/>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -3597,16 +4842,49 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15">
-        <v>12</v>
-      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14">
+        <v>154.08000000000001</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="X14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="23"/>
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -3620,18 +4898,50 @@
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3">
         <v>27</v>
       </c>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16">
-        <v>13</v>
-      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="23"/>
       <c r="C16" s="3">
         <v>600</v>
       </c>
@@ -3646,18 +4956,50 @@
         <v>10</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17">
+      <c r="I16" s="23"/>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>14</v>
       </c>
+      <c r="B17" s="23"/>
       <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" t="s">
@@ -3667,13 +5009,47 @@
         <v>10</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18">
+      <c r="I17" s="23"/>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>400</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R17">
+        <v>9</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>15</v>
       </c>
+      <c r="B18" s="23"/>
       <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>13</v>
@@ -3688,13 +5064,41 @@
       <c r="H18" s="3">
         <v>2525</v>
       </c>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19">
+      <c r="I18" s="23"/>
+      <c r="K18">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="O18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>16</v>
       </c>
+      <c r="B19" s="23"/>
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -3713,13 +5117,34 @@
       <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20">
+      <c r="I19" s="23"/>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>17</v>
       </c>
+      <c r="B20" s="23"/>
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -3736,13 +5161,32 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21">
+      <c r="I20" s="23"/>
+      <c r="K20">
+        <v>28</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>18</v>
       </c>
+      <c r="B21" s="23"/>
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -3757,20 +5201,41 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22">
+        <v>63</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="K21">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>2500</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>19</v>
       </c>
+      <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>21</v>
@@ -3784,13 +5249,25 @@
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23">
+      <c r="I22" s="23"/>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>175</v>
+      </c>
+      <c r="P22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
+      <c r="B23" s="23"/>
       <c r="C23">
         <v>-70</v>
       </c>
@@ -3804,19 +5281,38 @@
         <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="22"/>
+        <v>64</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K24" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:I23"/>
-    <mergeCell ref="A1:A23"/>
+    <mergeCell ref="B1:B23"/>
+    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3838,21 +5334,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>125</v>
+      <c r="A1" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3861,102 +5357,102 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>1024</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <f>-5/14</f>
@@ -3964,18 +5460,18 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <f>-4/9</f>
@@ -3983,7 +5479,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16">
         <v>3</v>
       </c>
@@ -3992,214 +5488,214 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="23"/>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="23"/>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" t="s">
-        <v>90</v>
       </c>
       <c r="C35">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="23"/>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C36">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="23"/>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C37">
         <v>4.8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="23"/>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C38">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="23"/>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="23"/>
       <c r="B40">
         <v>10</v>
       </c>
@@ -4208,7 +5704,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="23"/>
       <c r="B41">
         <v>11</v>
       </c>
@@ -4217,7 +5713,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="23"/>
       <c r="B42">
         <v>12</v>
       </c>
@@ -4226,7 +5722,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="23"/>
       <c r="B43">
         <v>13</v>
       </c>
@@ -4235,61 +5731,61 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="23"/>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="23"/>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="23"/>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="23"/>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="23"/>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="23"/>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="23"/>
       <c r="B50">
         <v>15</v>
       </c>

--- a/GRE/Roadmap/Practice.xlsx
+++ b/GRE/Roadmap/Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8550" windowWidth="22260" windowHeight="12645" tabRatio="556" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12645" tabRatio="556" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="225">
   <si>
     <t>Number</t>
   </si>
@@ -682,6 +682,21 @@
   </si>
   <si>
     <t>13|Divisibility and Primes</t>
+  </si>
+  <si>
+    <t>III_IV_V</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Week_04</t>
+  </si>
+  <si>
+    <t>WEEK_04</t>
+  </si>
+  <si>
+    <t>integer constraint,</t>
   </si>
 </sst>
 </file>
@@ -749,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -791,6 +806,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F23"/>
+    <sheetView topLeftCell="J8" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G17" si="0">D4/(D4+E4+F4)*100</f>
+        <f t="shared" ref="G4:G19" si="0">D4/(D4+E4+F4)*100</f>
         <v>75</v>
       </c>
       <c r="H4" t="s">
@@ -1574,27 +1592,59 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
         <v>44557</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" t="s">
         <v>219</v>
       </c>
+      <c r="K19" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G6">
     <cfRule type="colorScale" priority="4">
@@ -1620,7 +1670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G17">
+  <conditionalFormatting sqref="G13:G17 G19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="70"/>
@@ -1649,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="R1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,9 +1711,10 @@
     <col min="6" max="6" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1715,11 +1766,14 @@
       <c r="Q1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1765,11 +1819,12 @@
       <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="23"/>
+      <c r="S2" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1813,11 +1868,12 @@
       <c r="Q3">
         <v>80</v>
       </c>
-      <c r="R3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" s="23"/>
+      <c r="S3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1863,11 +1919,12 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4" s="23"/>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1912,11 +1969,12 @@
       <c r="Q5">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5" s="23"/>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1960,11 +2018,12 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="23"/>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2010,11 +2069,12 @@
       <c r="Q7">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="23"/>
+      <c r="S7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2060,11 +2120,12 @@
       <c r="Q8">
         <v>11</v>
       </c>
-      <c r="R8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8" s="23"/>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2110,11 +2171,12 @@
       <c r="Q9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="23"/>
+      <c r="S9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2160,11 +2222,12 @@
       <c r="Q10" s="5">
         <v>10</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="23"/>
+      <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2210,11 +2273,12 @@
       <c r="Q11" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="23"/>
+      <c r="S11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2258,11 +2322,12 @@
       <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="23"/>
+      <c r="S12" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2304,11 +2369,12 @@
       <c r="Q13">
         <v>12</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="23"/>
+      <c r="S13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2352,11 +2418,12 @@
         <v>11</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" t="s">
+      <c r="R14" s="23"/>
+      <c r="S14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2402,11 +2469,12 @@
       <c r="Q15" t="s">
         <v>11</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="23"/>
+      <c r="S15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2445,11 +2513,12 @@
       <c r="Q16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="23"/>
+      <c r="S16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2490,8 +2559,10 @@
       <c r="Q17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="23"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2532,8 +2603,12 @@
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="23"/>
+      <c r="S18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2575,8 +2650,10 @@
       <c r="Q19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="23"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2614,8 +2691,12 @@
       <c r="Q20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="23"/>
+      <c r="S20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2653,8 +2734,12 @@
       <c r="Q21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="23"/>
+      <c r="S21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2689,8 +2774,12 @@
       <c r="Q22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="23"/>
+      <c r="S22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2725,8 +2814,12 @@
       <c r="Q23" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="23"/>
+      <c r="S23" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2761,8 +2854,12 @@
       <c r="Q24" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="23"/>
+      <c r="S24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2797,8 +2894,10 @@
       <c r="Q25" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="23"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2833,8 +2932,12 @@
       <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="23"/>
+      <c r="S26" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2867,8 +2970,10 @@
       <c r="Q27" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="23"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2899,8 +3004,12 @@
       <c r="Q28" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="23"/>
+      <c r="S28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2933,8 +3042,12 @@
       <c r="Q29" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="23"/>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2969,8 +3082,12 @@
       <c r="Q30" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="23"/>
+      <c r="S30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3005,8 +3122,12 @@
       <c r="Q31" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="23"/>
+      <c r="S31" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3039,8 +3160,12 @@
       <c r="Q32" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="23"/>
+      <c r="S32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3070,8 +3195,12 @@
         <v>13</v>
       </c>
       <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="23"/>
+      <c r="S33" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3103,8 +3232,12 @@
       <c r="Q34" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="23"/>
+      <c r="S34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3136,8 +3269,12 @@
       <c r="Q35" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="23"/>
+      <c r="S35" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3166,8 +3303,12 @@
       <c r="Q36" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="23"/>
+      <c r="S36" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3196,8 +3337,10 @@
       <c r="Q37" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="23"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3226,8 +3369,12 @@
       <c r="Q38" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="23"/>
+      <c r="S38">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3256,8 +3403,12 @@
       <c r="Q39" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="23"/>
+      <c r="S39" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3284,8 +3435,12 @@
         <v>144</v>
       </c>
       <c r="Q40" s="4"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="23"/>
+      <c r="S40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3314,8 +3469,10 @@
       <c r="Q41" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="23"/>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3344,8 +3501,10 @@
       <c r="Q42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="23"/>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3374,8 +3533,10 @@
       <c r="Q43" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="23"/>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3402,8 +3563,10 @@
         <v>11</v>
       </c>
       <c r="Q44" s="4"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="23"/>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3432,8 +3595,10 @@
       <c r="Q45" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="23"/>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3458,8 +3623,9 @@
         <v>13</v>
       </c>
       <c r="Q46" s="4"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="23"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3488,8 +3654,9 @@
       <c r="Q47" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="23"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3516,8 +3683,9 @@
       <c r="Q48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="23"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3546,8 +3714,9 @@
       <c r="Q49" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="23"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3576,8 +3745,9 @@
       <c r="Q50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="23"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3604,8 +3774,9 @@
       <c r="Q51" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="23"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3634,8 +3805,9 @@
       <c r="Q52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="23"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3658,8 +3830,9 @@
       <c r="Q53" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="23"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3682,8 +3855,9 @@
       <c r="Q54" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="23"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3706,8 +3880,9 @@
       <c r="Q55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="23"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3730,8 +3905,9 @@
       <c r="Q56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="23"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3743,8 +3919,9 @@
       </c>
       <c r="L57" s="23"/>
       <c r="Q57" s="4"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="23"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3755,8 +3932,9 @@
         <v>13</v>
       </c>
       <c r="L58" s="23"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="23"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3767,8 +3945,9 @@
         <v>12</v>
       </c>
       <c r="L59" s="23"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="23"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3779,8 +3958,9 @@
         <v>0</v>
       </c>
       <c r="L60" s="23"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="23"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3791,8 +3971,9 @@
         <v>2</v>
       </c>
       <c r="L61" s="23"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="23"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3803,8 +3984,9 @@
         <v>24</v>
       </c>
       <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="23"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3815,8 +3997,9 @@
         <v>13</v>
       </c>
       <c r="L63" s="23"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="23"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3827,8 +4010,9 @@
         <v>25</v>
       </c>
       <c r="L64" s="23"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R64" s="23"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3839,8 +4023,9 @@
         <v>317</v>
       </c>
       <c r="L65" s="23"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R65" s="23"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3851,8 +4036,9 @@
         <v>2</v>
       </c>
       <c r="L66" s="23"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R66" s="23"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3863,8 +4049,9 @@
         <v>11</v>
       </c>
       <c r="L67" s="23"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R67" s="23"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3875,8 +4062,9 @@
         <v>10</v>
       </c>
       <c r="L68" s="23"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R68" s="23"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3887,8 +4075,9 @@
         <v>10</v>
       </c>
       <c r="L69" s="23"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R69" s="23"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3899,8 +4088,9 @@
         <v>10</v>
       </c>
       <c r="L70" s="23"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R70" s="23"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3911,8 +4101,9 @@
         <v>13</v>
       </c>
       <c r="L71" s="23"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R71" s="23"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3923,8 +4114,9 @@
         <v>21</v>
       </c>
       <c r="L72" s="23"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R72" s="23"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3935,8 +4127,9 @@
         <v>12</v>
       </c>
       <c r="L73" s="23"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="R73" s="23"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3947,12 +4140,14 @@
         <v>10</v>
       </c>
       <c r="L74" s="23"/>
+      <c r="R74" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="L1:L74"/>
     <mergeCell ref="G1:G74"/>
     <mergeCell ref="B1:B74"/>
+    <mergeCell ref="R1:R74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3961,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="AA10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3977,10 +4172,12 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -4016,8 +4213,11 @@
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z1" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4084,11 +4284,12 @@
       <c r="Y2" s="2">
         <v>44556</v>
       </c>
-      <c r="Z2" s="2">
-        <v>44556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="2">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -4160,11 +4361,12 @@
       <c r="Y3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4234,8 +4436,12 @@
       <c r="Y4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4" s="23"/>
+      <c r="AA4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4303,8 +4509,12 @@
       <c r="Y5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5" s="23"/>
+      <c r="AA5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4374,8 +4584,12 @@
       <c r="Y6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="23"/>
+      <c r="AA6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4440,8 +4654,12 @@
       <c r="Y7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z7" s="23"/>
+      <c r="AA7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4508,8 +4726,12 @@
       <c r="Y8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z8" s="23"/>
+      <c r="AA8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4573,8 +4795,12 @@
       <c r="Y9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z9" s="23"/>
+      <c r="AA9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4640,8 +4866,12 @@
       <c r="Y10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10" s="23"/>
+      <c r="AA10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4700,8 +4930,12 @@
       <c r="Y11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z11" s="23"/>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4764,8 +4998,12 @@
       <c r="Y12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z12" s="23"/>
+      <c r="AA12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4823,8 +5061,12 @@
       <c r="Y13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z13" s="23"/>
+      <c r="AA13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4879,8 +5121,12 @@
       <c r="Y14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z14" s="23"/>
+      <c r="AA14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4936,8 +5182,12 @@
       <c r="Y15" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z15" s="23"/>
+      <c r="AA15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4989,8 +5239,12 @@
       <c r="Y16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="23"/>
+      <c r="AA16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5044,8 +5298,12 @@
       <c r="Y17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="23"/>
+      <c r="AA17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5093,8 +5351,12 @@
       <c r="Y18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="23"/>
+      <c r="AA18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5139,8 +5401,12 @@
       <c r="Y19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="23"/>
+      <c r="AA19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5181,8 +5447,9 @@
       <c r="Y20" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="23"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5225,8 +5492,9 @@
       <c r="Y21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="23"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5262,8 +5530,9 @@
       <c r="Y22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="23"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5299,14 +5568,16 @@
       <c r="Y23" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="23"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Z1:Z23"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>

--- a/GRE/Roadmap/Practice.xlsx
+++ b/GRE/Roadmap/Practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="22260" windowHeight="12645" tabRatio="556" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="22260" windowHeight="12645" tabRatio="556" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="245">
   <si>
     <t>Number</t>
   </si>
@@ -697,13 +697,73 @@
   </si>
   <si>
     <t>integer constraint,</t>
+  </si>
+  <si>
+    <t>B E H</t>
+  </si>
+  <si>
+    <t>4_Divisibility and Primes</t>
+  </si>
+  <si>
+    <t>A C E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>D E</t>
+  </si>
+  <si>
+    <t>12!</t>
+  </si>
+  <si>
+    <t>A E F</t>
+  </si>
+  <si>
+    <t>A B C D</t>
+  </si>
+  <si>
+    <t>14|Exponents and Roots</t>
+  </si>
+  <si>
+    <t>test_14</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>2^96</t>
+  </si>
+  <si>
+    <t>5_Word Problems</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>48h</t>
+  </si>
+  <si>
+    <t>9y</t>
+  </si>
+  <si>
+    <t>2.57m</t>
+  </si>
+  <si>
+    <t>1x10^7</t>
+  </si>
+  <si>
+    <t>20/49</t>
+  </si>
+  <si>
+    <t>38_75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,6 +775,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -761,10 +836,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -799,6 +875,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -807,11 +886,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G19" si="0">D4/(D4+E4+F4)*100</f>
+        <f t="shared" ref="G4:G20" si="0">D4/(D4+E4+F4)*100</f>
         <v>75</v>
       </c>
       <c r="H4" t="s">
@@ -1592,19 +1672,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1637,6 +1717,36 @@
       </c>
       <c r="K19" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>82.051282051282044</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G17 G19">
+  <conditionalFormatting sqref="G13:G17 G19:G20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="70"/>
@@ -1699,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,11 +1824,11 @@
     <col min="18" max="18" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1733,7 +1843,7 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1748,7 +1858,7 @@
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="24" t="s">
         <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1766,18 +1876,21 @@
       <c r="Q1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="24" t="s">
         <v>222</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1790,7 +1903,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1916,7 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="24"/>
       <c r="M2" t="s">
         <v>125</v>
       </c>
@@ -1819,16 +1932,19 @@
       <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="23"/>
+      <c r="R2" s="24"/>
       <c r="S2" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1957,7 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="4"/>
       <c r="I3">
         <v>1</v>
@@ -1852,7 +1968,7 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="24"/>
       <c r="M3" t="s">
         <v>13</v>
       </c>
@@ -1868,16 +1984,19 @@
       <c r="Q3">
         <v>80</v>
       </c>
-      <c r="R3" s="23"/>
+      <c r="R3" s="24"/>
       <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +2009,7 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3">
         <v>118</v>
       </c>
@@ -1903,7 +2022,7 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="24"/>
       <c r="M4" t="s">
         <v>13</v>
       </c>
@@ -1919,16 +2038,19 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="23"/>
+      <c r="R4" s="24"/>
       <c r="S4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +2063,7 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="3">
         <v>12</v>
       </c>
@@ -1955,7 +2077,7 @@
       <c r="K5">
         <v>37</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="4"/>
       <c r="N5" t="s">
         <v>11</v>
@@ -1969,16 +2091,19 @@
       <c r="Q5">
         <v>20</v>
       </c>
-      <c r="R5" s="23"/>
+      <c r="R5" s="24"/>
       <c r="S5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1991,7 +2116,7 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2129,7 @@
       <c r="K6">
         <v>720</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="4"/>
       <c r="N6" t="s">
         <v>11</v>
@@ -2018,16 +2143,19 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="23"/>
+      <c r="R6" s="24"/>
       <c r="S6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2168,7 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7">
         <v>7.5</v>
       </c>
@@ -2053,7 +2181,7 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="19" t="s">
         <v>126</v>
       </c>
@@ -2069,16 +2197,19 @@
       <c r="Q7">
         <v>30</v>
       </c>
-      <c r="R7" s="23"/>
+      <c r="R7" s="24"/>
       <c r="S7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2222,7 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2235,7 @@
       <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" t="s">
         <v>127</v>
       </c>
@@ -2120,16 +2251,19 @@
       <c r="Q8">
         <v>11</v>
       </c>
-      <c r="R8" s="23"/>
+      <c r="R8" s="24"/>
       <c r="S8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2276,7 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2289,7 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="3" t="s">
         <v>128</v>
       </c>
@@ -2171,16 +2305,19 @@
       <c r="Q9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="23"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2330,7 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2343,7 @@
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" t="s">
         <v>13</v>
       </c>
@@ -2222,16 +2359,19 @@
       <c r="Q10" s="5">
         <v>10</v>
       </c>
-      <c r="R10" s="23"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11">
         <v>7.4</v>
       </c>
@@ -2244,7 +2384,7 @@
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11">
         <v>144</v>
       </c>
@@ -2257,7 +2397,7 @@
       <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="24"/>
       <c r="M11" t="s">
         <v>11</v>
       </c>
@@ -2273,16 +2413,19 @@
       <c r="Q11" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="23"/>
+      <c r="R11" s="24"/>
       <c r="S11" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -2295,7 +2438,7 @@
       <c r="F12">
         <v>216</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2449,7 @@
         <v>50</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="23"/>
+      <c r="L12" s="24"/>
       <c r="M12" t="s">
         <v>13</v>
       </c>
@@ -2322,16 +2465,19 @@
       <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="23"/>
+      <c r="R12" s="24"/>
       <c r="S12" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3">
         <v>143</v>
@@ -2340,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" t="s">
         <v>11</v>
       </c>
@@ -2353,7 +2499,7 @@
       <c r="K13" s="3">
         <v>19.312000000000001</v>
       </c>
-      <c r="L13" s="23"/>
+      <c r="L13" s="24"/>
       <c r="M13" t="s">
         <v>11</v>
       </c>
@@ -2369,16 +2515,19 @@
       <c r="Q13">
         <v>12</v>
       </c>
-      <c r="R13" s="23"/>
+      <c r="R13" s="24"/>
       <c r="S13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3">
         <v>2</v>
       </c>
@@ -2391,7 +2540,7 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2553,7 @@
       <c r="K14">
         <v>43</v>
       </c>
-      <c r="L14" s="23"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="3" t="s">
         <v>129</v>
       </c>
@@ -2418,16 +2567,19 @@
         <v>11</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="23"/>
+      <c r="R14" s="24"/>
       <c r="S14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2440,7 +2592,7 @@
       <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2453,7 +2605,7 @@
       <c r="K15">
         <v>15</v>
       </c>
-      <c r="L15" s="23"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2469,22 +2621,25 @@
       <c r="Q15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="23"/>
+      <c r="R15" s="24"/>
       <c r="S15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +2652,7 @@
       <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="23"/>
+      <c r="L16" s="24"/>
       <c r="M16" t="s">
         <v>130</v>
       </c>
@@ -2513,16 +2668,19 @@
       <c r="Q16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="24"/>
       <c r="S16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2530,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" t="s">
         <v>11</v>
       </c>
@@ -2543,7 +2701,7 @@
       <c r="K17" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="24"/>
       <c r="M17" t="s">
         <v>12</v>
       </c>
@@ -2559,14 +2717,15 @@
       <c r="Q17" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="23"/>
+      <c r="R17" s="24"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -2574,7 +2733,7 @@
         <v>9</v>
       </c>
       <c r="F18"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" t="s">
         <v>11</v>
       </c>
@@ -2587,7 +2746,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="23"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="3" t="s">
         <v>13</v>
       </c>
@@ -2603,16 +2762,19 @@
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="23"/>
+      <c r="R18" s="24"/>
       <c r="S18" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2620,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="F19"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="H19" t="s">
         <v>12</v>
       </c>
@@ -2634,7 +2796,7 @@
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="23"/>
+      <c r="L19" s="24"/>
       <c r="M19" t="s">
         <v>12</v>
       </c>
@@ -2650,14 +2812,17 @@
       <c r="Q19" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="23"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
@@ -2665,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="I20">
         <v>30</v>
       </c>
@@ -2675,7 +2840,7 @@
       <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="23"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2691,16 +2856,19 @@
       <c r="Q20" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="23"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="F21"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="24"/>
       <c r="I21">
         <v>9</v>
       </c>
@@ -2718,7 +2886,7 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="23"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="3" t="s">
         <v>131</v>
       </c>
@@ -2734,21 +2902,24 @@
       <c r="Q21" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="23"/>
+      <c r="R21" s="24"/>
       <c r="S21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="I22">
         <v>3</v>
       </c>
@@ -2758,7 +2929,7 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="23"/>
+      <c r="L22" s="24"/>
       <c r="M22" t="s">
         <v>11</v>
       </c>
@@ -2774,21 +2945,24 @@
       <c r="Q22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="23"/>
+      <c r="R22" s="24"/>
       <c r="S22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="23"/>
+      <c r="G23" s="24"/>
       <c r="I23">
         <v>1</v>
       </c>
@@ -2798,7 +2972,7 @@
       <c r="K23" s="3">
         <v>270</v>
       </c>
-      <c r="L23" s="23"/>
+      <c r="L23" s="24"/>
       <c r="M23" t="s">
         <v>11</v>
       </c>
@@ -2814,21 +2988,24 @@
       <c r="Q23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="23"/>
+      <c r="R23" s="24"/>
       <c r="S23" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="23"/>
+      <c r="G24" s="24"/>
       <c r="I24" s="3">
         <v>12</v>
       </c>
@@ -2838,7 +3015,7 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="24"/>
       <c r="M24" t="s">
         <v>12</v>
       </c>
@@ -2854,21 +3031,24 @@
       <c r="Q24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R24" s="23"/>
+      <c r="R24" s="24"/>
       <c r="S24" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="I25" t="s">
         <v>12</v>
       </c>
@@ -2878,7 +3058,7 @@
       <c r="K25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="24"/>
       <c r="M25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2894,19 +3074,22 @@
       <c r="Q25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="23"/>
+      <c r="R25" s="24"/>
       <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="I26" t="s">
         <v>13</v>
       </c>
@@ -2916,7 +3099,7 @@
       <c r="K26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="23"/>
+      <c r="L26" s="24"/>
       <c r="M26" t="s">
         <v>13</v>
       </c>
@@ -2932,21 +3115,24 @@
       <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="23"/>
+      <c r="R26" s="24"/>
       <c r="S26" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="24"/>
       <c r="I27" s="8" t="s">
         <v>10</v>
       </c>
@@ -2954,7 +3140,7 @@
         <v>11</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="23"/>
+      <c r="L27" s="24"/>
       <c r="M27" t="s">
         <v>21</v>
       </c>
@@ -2970,19 +3156,20 @@
       <c r="Q27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="23"/>
+      <c r="R27" s="24"/>
       <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="I28" s="8" t="s">
         <v>11</v>
       </c>
@@ -2990,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="23"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="15" t="s">
         <v>132</v>
       </c>
@@ -3004,21 +3191,24 @@
       <c r="Q28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="23"/>
+      <c r="R28" s="24"/>
       <c r="S28" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="23"/>
+      <c r="G29" s="24"/>
       <c r="I29" s="8" t="s">
         <v>11</v>
       </c>
@@ -3028,7 +3218,7 @@
       <c r="K29">
         <v>1778</v>
       </c>
-      <c r="L29" s="23"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="4"/>
       <c r="N29" t="s">
         <v>142</v>
@@ -3042,21 +3232,24 @@
       <c r="Q29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R29" s="23"/>
+      <c r="R29" s="24"/>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="23"/>
+      <c r="G30" s="24"/>
       <c r="I30" s="8" t="s">
         <v>12</v>
       </c>
@@ -3066,7 +3259,7 @@
       <c r="K30" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="23"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="5" t="s">
         <v>13</v>
       </c>
@@ -3082,21 +3275,24 @@
       <c r="Q30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="23"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="23"/>
+      <c r="G31" s="24"/>
       <c r="I31" s="9" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3302,7 @@
       <c r="K31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="23"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="5" t="s">
         <v>10</v>
       </c>
@@ -3122,21 +3318,24 @@
       <c r="Q31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R31" s="23"/>
+      <c r="R31" s="24"/>
       <c r="S31" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="23"/>
+      <c r="G32" s="24"/>
       <c r="I32" s="9" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3343,7 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="23"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3160,21 +3359,24 @@
       <c r="Q32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R32" s="23"/>
+      <c r="R32" s="24"/>
       <c r="S32" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="23"/>
+      <c r="G33" s="24"/>
       <c r="I33" s="9" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3386,7 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="23"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="3" t="s">
         <v>12</v>
       </c>
@@ -3195,21 +3397,24 @@
         <v>13</v>
       </c>
       <c r="Q33" s="4"/>
-      <c r="R33" s="23"/>
+      <c r="R33" s="24"/>
       <c r="S33" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="23"/>
+      <c r="G34" s="24"/>
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
@@ -3219,7 +3424,7 @@
       <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="23"/>
+      <c r="L34" s="24"/>
       <c r="M34" s="3" t="s">
         <v>21</v>
       </c>
@@ -3232,21 +3437,24 @@
       <c r="Q34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="23"/>
+      <c r="R34" s="24"/>
       <c r="S34" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="23"/>
+      <c r="G35" s="24"/>
       <c r="I35" s="8" t="s">
         <v>12</v>
       </c>
@@ -3256,7 +3464,7 @@
       <c r="K35" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="23"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="3" t="s">
         <v>133</v>
       </c>
@@ -3269,21 +3477,24 @@
       <c r="Q35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="23"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="24"/>
       <c r="I36" s="8" t="s">
         <v>10</v>
       </c>
@@ -3293,7 +3504,7 @@
       <c r="K36" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="23"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="3" t="s">
         <v>10</v>
       </c>
@@ -3303,21 +3514,24 @@
       <c r="Q36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R36" s="23"/>
+      <c r="R36" s="24"/>
       <c r="S36" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="23"/>
+      <c r="G37" s="24"/>
       <c r="I37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3327,7 +3541,7 @@
       <c r="K37" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="23"/>
+      <c r="L37" s="24"/>
       <c r="M37" s="3" t="s">
         <v>10</v>
       </c>
@@ -3337,19 +3551,22 @@
       <c r="Q37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="23"/>
+      <c r="R37" s="24"/>
       <c r="S37" s="4"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="24"/>
       <c r="I38" s="9" t="s">
         <v>10</v>
       </c>
@@ -3359,7 +3576,7 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="23"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="5" t="s">
         <v>12</v>
       </c>
@@ -3369,21 +3586,24 @@
       <c r="Q38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="23"/>
+      <c r="R38" s="24"/>
       <c r="S38">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="23"/>
+      <c r="G39" s="24"/>
       <c r="I39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3393,7 +3613,7 @@
       <c r="K39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="23"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="3" t="s">
         <v>11</v>
       </c>
@@ -3403,21 +3623,24 @@
       <c r="Q39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R39" s="23"/>
+      <c r="R39" s="24"/>
       <c r="S39" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="23"/>
+      <c r="G40" s="24"/>
       <c r="I40" s="8" t="s">
         <v>10</v>
       </c>
@@ -3427,7 +3650,7 @@
       <c r="K40" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="23"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="20" t="s">
         <v>128</v>
       </c>
@@ -3435,21 +3658,24 @@
         <v>144</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="23"/>
+      <c r="R40" s="24"/>
       <c r="S40" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="23"/>
+      <c r="G41" s="24"/>
       <c r="I41" s="8" t="s">
         <v>12</v>
       </c>
@@ -3459,7 +3685,7 @@
       <c r="K41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="23"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="18" t="s">
         <v>134</v>
       </c>
@@ -3469,19 +3695,19 @@
       <c r="Q41" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="23"/>
+      <c r="R41" s="24"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="23"/>
+      <c r="G42" s="24"/>
       <c r="I42" s="9" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3717,7 @@
       <c r="K42" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="23"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="18" t="s">
         <v>135</v>
       </c>
@@ -3501,19 +3727,19 @@
       <c r="Q42" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="23"/>
+      <c r="R42" s="24"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="23"/>
+      <c r="G43" s="24"/>
       <c r="I43">
         <v>-3</v>
       </c>
@@ -3523,7 +3749,7 @@
       <c r="K43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="23"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="18" t="s">
         <v>10</v>
       </c>
@@ -3533,19 +3759,19 @@
       <c r="Q43" t="s">
         <v>12</v>
       </c>
-      <c r="R43" s="23"/>
+      <c r="R43" s="24"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
       <c r="I44">
         <v>6</v>
       </c>
@@ -3555,7 +3781,7 @@
       <c r="K44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="23"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="18" t="s">
         <v>11</v>
       </c>
@@ -3563,19 +3789,19 @@
         <v>11</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="23"/>
+      <c r="R44" s="24"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="23"/>
+      <c r="G45" s="24"/>
       <c r="I45">
         <v>4</v>
       </c>
@@ -3585,7 +3811,7 @@
       <c r="K45" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="23"/>
+      <c r="L45" s="24"/>
       <c r="M45" s="20" t="s">
         <v>13</v>
       </c>
@@ -3595,19 +3821,19 @@
       <c r="Q45" t="s">
         <v>12</v>
       </c>
-      <c r="R45" s="23"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="23"/>
+      <c r="G46" s="24"/>
       <c r="I46" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3841,7 @@
       <c r="K46" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="23"/>
+      <c r="L46" s="24"/>
       <c r="M46" s="18" t="s">
         <v>13</v>
       </c>
@@ -3623,18 +3849,18 @@
         <v>13</v>
       </c>
       <c r="Q46" s="4"/>
-      <c r="R46" s="23"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R46" s="24"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="23"/>
+      <c r="G47" s="24"/>
       <c r="I47" s="5" t="s">
         <v>14</v>
       </c>
@@ -3644,7 +3870,7 @@
       <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="23"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="18" t="s">
         <v>13</v>
       </c>
@@ -3654,18 +3880,18 @@
       <c r="Q47" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="23"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R47" s="24"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="23"/>
+      <c r="G48" s="24"/>
       <c r="I48" t="s">
         <v>10</v>
       </c>
@@ -3673,7 +3899,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="4"/>
-      <c r="L48" s="23"/>
+      <c r="L48" s="24"/>
       <c r="M48" s="20" t="s">
         <v>10</v>
       </c>
@@ -3683,18 +3909,18 @@
       <c r="Q48" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="23"/>
+      <c r="R48" s="24"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="23"/>
+      <c r="G49" s="24"/>
       <c r="I49" t="s">
         <v>12</v>
       </c>
@@ -3704,7 +3930,7 @@
       <c r="K49" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="23"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="18" t="s">
         <v>11</v>
       </c>
@@ -3714,18 +3940,18 @@
       <c r="Q49" t="s">
         <v>12</v>
       </c>
-      <c r="R49" s="23"/>
+      <c r="R49" s="24"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="23"/>
+      <c r="G50" s="24"/>
       <c r="I50" t="s">
         <v>13</v>
       </c>
@@ -3735,7 +3961,7 @@
       <c r="K50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="23"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="20" t="s">
         <v>21</v>
       </c>
@@ -3745,18 +3971,18 @@
       <c r="Q50" t="s">
         <v>13</v>
       </c>
-      <c r="R50" s="23"/>
+      <c r="R50" s="24"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="23"/>
+      <c r="G51" s="24"/>
       <c r="I51" t="s">
         <v>10</v>
       </c>
@@ -3764,7 +3990,7 @@
         <v>12</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="23"/>
+      <c r="L51" s="24"/>
       <c r="M51" s="18" t="s">
         <v>21</v>
       </c>
@@ -3774,18 +4000,18 @@
       <c r="Q51" t="s">
         <v>10</v>
       </c>
-      <c r="R51" s="23"/>
+      <c r="R51" s="24"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="23"/>
+      <c r="G52" s="24"/>
       <c r="I52" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +4021,7 @@
       <c r="K52" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="23"/>
+      <c r="L52" s="24"/>
       <c r="M52" s="20" t="s">
         <v>11</v>
       </c>
@@ -3805,18 +4031,18 @@
       <c r="Q52" t="s">
         <v>12</v>
       </c>
-      <c r="R52" s="23"/>
+      <c r="R52" s="24"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="23"/>
+      <c r="G53" s="24"/>
       <c r="I53" t="s">
         <v>10</v>
       </c>
@@ -3826,22 +4052,22 @@
       <c r="K53" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="23"/>
+      <c r="L53" s="24"/>
       <c r="Q53" t="s">
         <v>10</v>
       </c>
-      <c r="R53" s="23"/>
+      <c r="R53" s="24"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="23"/>
+      <c r="G54" s="24"/>
       <c r="I54" t="s">
         <v>21</v>
       </c>
@@ -3851,22 +4077,22 @@
       <c r="K54" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="23"/>
+      <c r="L54" s="24"/>
       <c r="Q54" t="s">
         <v>171</v>
       </c>
-      <c r="R54" s="23"/>
+      <c r="R54" s="24"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="23"/>
+      <c r="G55" s="24"/>
       <c r="I55">
         <v>12.5</v>
       </c>
@@ -3876,22 +4102,22 @@
       <c r="K55" t="s">
         <v>13</v>
       </c>
-      <c r="L55" s="23"/>
+      <c r="L55" s="24"/>
       <c r="Q55" t="s">
         <v>13</v>
       </c>
-      <c r="R55" s="23"/>
+      <c r="R55" s="24"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="23"/>
+      <c r="G56" s="24"/>
       <c r="I56" s="3">
         <v>9</v>
       </c>
@@ -3901,246 +4127,246 @@
       <c r="K56" t="s">
         <v>13</v>
       </c>
-      <c r="L56" s="23"/>
+      <c r="L56" s="24"/>
       <c r="Q56" t="s">
         <v>10</v>
       </c>
-      <c r="R56" s="23"/>
+      <c r="R56" s="24"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="F57"/>
-      <c r="G57" s="23"/>
+      <c r="G57" s="24"/>
       <c r="K57" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="23"/>
+      <c r="L57" s="24"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="23"/>
+      <c r="R57" s="24"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="24"/>
       <c r="F58"/>
-      <c r="G58" s="23"/>
+      <c r="G58" s="24"/>
       <c r="K58" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="R58" s="23"/>
+      <c r="L58" s="24"/>
+      <c r="R58" s="24"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="23"/>
+      <c r="B59" s="24"/>
       <c r="F59"/>
-      <c r="G59" s="23"/>
+      <c r="G59" s="24"/>
       <c r="K59" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="23"/>
-      <c r="R59" s="23"/>
+      <c r="L59" s="24"/>
+      <c r="R59" s="24"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="F60"/>
-      <c r="G60" s="23"/>
+      <c r="G60" s="24"/>
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="R60" s="23"/>
+      <c r="L60" s="24"/>
+      <c r="R60" s="24"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="F61"/>
-      <c r="G61" s="23"/>
+      <c r="G61" s="24"/>
       <c r="K61">
         <v>2</v>
       </c>
-      <c r="L61" s="23"/>
-      <c r="R61" s="23"/>
+      <c r="L61" s="24"/>
+      <c r="R61" s="24"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="23"/>
+      <c r="B62" s="24"/>
       <c r="F62"/>
-      <c r="G62" s="23"/>
+      <c r="G62" s="24"/>
       <c r="K62" s="3">
         <v>24</v>
       </c>
-      <c r="L62" s="23"/>
-      <c r="R62" s="23"/>
+      <c r="L62" s="24"/>
+      <c r="R62" s="24"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="F63"/>
-      <c r="G63" s="23"/>
+      <c r="G63" s="24"/>
       <c r="K63" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="23"/>
-      <c r="R63" s="23"/>
+      <c r="L63" s="24"/>
+      <c r="R63" s="24"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="23"/>
+      <c r="B64" s="24"/>
       <c r="F64"/>
-      <c r="G64" s="23"/>
+      <c r="G64" s="24"/>
       <c r="K64" s="3">
         <v>25</v>
       </c>
-      <c r="L64" s="23"/>
-      <c r="R64" s="23"/>
+      <c r="L64" s="24"/>
+      <c r="R64" s="24"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="23"/>
+      <c r="B65" s="24"/>
       <c r="F65"/>
-      <c r="G65" s="23"/>
+      <c r="G65" s="24"/>
       <c r="K65">
         <v>317</v>
       </c>
-      <c r="L65" s="23"/>
-      <c r="R65" s="23"/>
+      <c r="L65" s="24"/>
+      <c r="R65" s="24"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="23"/>
+      <c r="B66" s="24"/>
       <c r="F66"/>
-      <c r="G66" s="23"/>
+      <c r="G66" s="24"/>
       <c r="K66" s="3">
         <v>2</v>
       </c>
-      <c r="L66" s="23"/>
-      <c r="R66" s="23"/>
+      <c r="L66" s="24"/>
+      <c r="R66" s="24"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="23"/>
+      <c r="B67" s="24"/>
       <c r="F67"/>
-      <c r="G67" s="23"/>
+      <c r="G67" s="24"/>
       <c r="K67">
         <v>11</v>
       </c>
-      <c r="L67" s="23"/>
-      <c r="R67" s="23"/>
+      <c r="L67" s="24"/>
+      <c r="R67" s="24"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="23"/>
+      <c r="B68" s="24"/>
       <c r="F68"/>
-      <c r="G68" s="23"/>
+      <c r="G68" s="24"/>
       <c r="K68" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="23"/>
-      <c r="R68" s="23"/>
+      <c r="L68" s="24"/>
+      <c r="R68" s="24"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="23"/>
+      <c r="B69" s="24"/>
       <c r="F69"/>
-      <c r="G69" s="23"/>
+      <c r="G69" s="24"/>
       <c r="K69" t="s">
         <v>10</v>
       </c>
-      <c r="L69" s="23"/>
-      <c r="R69" s="23"/>
+      <c r="L69" s="24"/>
+      <c r="R69" s="24"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="23"/>
+      <c r="B70" s="24"/>
       <c r="F70"/>
-      <c r="G70" s="23"/>
+      <c r="G70" s="24"/>
       <c r="K70" t="s">
         <v>10</v>
       </c>
-      <c r="L70" s="23"/>
-      <c r="R70" s="23"/>
+      <c r="L70" s="24"/>
+      <c r="R70" s="24"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="23"/>
+      <c r="B71" s="24"/>
       <c r="F71"/>
-      <c r="G71" s="23"/>
+      <c r="G71" s="24"/>
       <c r="K71" t="s">
         <v>13</v>
       </c>
-      <c r="L71" s="23"/>
-      <c r="R71" s="23"/>
+      <c r="L71" s="24"/>
+      <c r="R71" s="24"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="23"/>
+      <c r="B72" s="24"/>
       <c r="F72"/>
-      <c r="G72" s="23"/>
+      <c r="G72" s="24"/>
       <c r="K72" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="23"/>
-      <c r="R72" s="23"/>
+      <c r="L72" s="24"/>
+      <c r="R72" s="24"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="23"/>
+      <c r="B73" s="24"/>
       <c r="F73"/>
-      <c r="G73" s="23"/>
+      <c r="G73" s="24"/>
       <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="L73" s="23"/>
-      <c r="R73" s="23"/>
+      <c r="L73" s="24"/>
+      <c r="R73" s="24"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="23"/>
+      <c r="B74" s="24"/>
       <c r="F74"/>
-      <c r="G74" s="23"/>
+      <c r="G74" s="24"/>
       <c r="K74" t="s">
         <v>10</v>
       </c>
-      <c r="L74" s="23"/>
-      <c r="R74" s="23"/>
+      <c r="L74" s="24"/>
+      <c r="R74" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4156,10 +4382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,54 +4400,62 @@
     <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="Z1" s="23" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="Z1" s="24" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2">
         <v>44547</v>
@@ -4235,7 +4469,7 @@
       <c r="H2" s="2">
         <v>44548</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="2">
         <v>44553</v>
       </c>
@@ -4284,16 +4518,34 @@
       <c r="Y2" s="2">
         <v>44556</v>
       </c>
-      <c r="Z2" s="23"/>
+      <c r="Z2" s="24"/>
       <c r="AA2" s="2">
         <v>44558</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2">
+        <v>44558</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>44560</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>44560</v>
+      </c>
+      <c r="AE2" s="28">
+        <v>44561</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>44562</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
@@ -4312,7 +4564,7 @@
       <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1" t="s">
         <v>151</v>
       </c>
@@ -4361,16 +4613,34 @@
       <c r="Y3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="23"/>
+      <c r="Z3" s="24"/>
       <c r="AA3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -4389,7 +4659,7 @@
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="24"/>
       <c r="J4">
         <v>256</v>
       </c>
@@ -4436,16 +4706,34 @@
       <c r="Y4" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="23"/>
+      <c r="Z4" s="24"/>
       <c r="AA4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC4">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>100</v>
+      </c>
+      <c r="AF4">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -4464,7 +4752,7 @@
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5">
         <v>13</v>
       </c>
@@ -4509,16 +4797,34 @@
       <c r="Y5" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF5">
+        <v>10.4</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +4843,7 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="3">
         <v>38</v>
       </c>
@@ -4584,16 +4890,32 @@
       <c r="Y6" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="23"/>
+      <c r="Z6" s="24"/>
       <c r="AA6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC6">
+        <v>45</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>11</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7">
         <v>-15</v>
       </c>
@@ -4610,7 +4932,7 @@
         <v>75</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="3">
         <v>400</v>
       </c>
@@ -4654,16 +4976,32 @@
       <c r="Y7" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="23"/>
+      <c r="Z7" s="24"/>
       <c r="AA7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="4"/>
+      <c r="AC7">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>43</v>
+      </c>
+      <c r="AF7">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -4682,7 +5020,7 @@
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="24"/>
       <c r="J8" t="s">
         <v>146</v>
       </c>
@@ -4726,16 +5064,34 @@
       <c r="Y8">
         <v>17</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>50</v>
+      </c>
+      <c r="AC8">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>108</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -4754,7 +5110,7 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3">
         <v>80</v>
@@ -4795,16 +5151,34 @@
       <c r="Y9" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="23"/>
+      <c r="Z9" s="24"/>
       <c r="AA9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>11</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>33</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>360</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -4823,7 +5197,7 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="3" t="s">
         <v>147</v>
       </c>
@@ -4866,16 +5240,34 @@
       <c r="Y10" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="23"/>
+      <c r="Z10" s="24"/>
       <c r="AA10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -4892,7 +5284,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="24"/>
       <c r="J11" t="s">
         <v>148</v>
       </c>
@@ -4930,16 +5322,32 @@
       <c r="Y11" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="23"/>
+      <c r="Z11" s="24"/>
       <c r="AA11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12">
         <v>-1</v>
       </c>
@@ -4958,7 +5366,7 @@
       <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" t="s">
         <v>149</v>
       </c>
@@ -4998,16 +5406,34 @@
       <c r="Y12" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="23"/>
+      <c r="Z12" s="24"/>
       <c r="AA12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="3">
+        <v>204</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>74.48</v>
+      </c>
+      <c r="AE12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>3510</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5023,7 +5449,7 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" t="s">
         <v>150</v>
       </c>
@@ -5061,16 +5487,25 @@
       <c r="Y13" t="s">
         <v>11</v>
       </c>
-      <c r="Z13" s="23"/>
+      <c r="Z13" s="24"/>
       <c r="AA13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>44.44</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -5087,7 +5522,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="4"/>
       <c r="K14" s="15" t="s">
         <v>154</v>
@@ -5121,16 +5556,21 @@
       <c r="Y14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="23"/>
+      <c r="Z14" s="24"/>
       <c r="AA14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="3">
+        <v>196</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -5149,7 +5589,7 @@
       <c r="H15" s="3">
         <v>27</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5182,16 +5622,25 @@
       <c r="Y15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z15" s="23"/>
+      <c r="Z15" s="24"/>
       <c r="AA15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>5</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3">
         <v>600</v>
       </c>
@@ -5206,7 +5655,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="24"/>
       <c r="J16" t="s">
         <v>13</v>
       </c>
@@ -5239,16 +5688,25 @@
       <c r="Y16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="24"/>
       <c r="AA16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -5263,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="3" t="s">
         <v>13</v>
       </c>
@@ -5298,16 +5756,25 @@
       <c r="Y17" t="s">
         <v>10</v>
       </c>
-      <c r="Z17" s="23"/>
+      <c r="Z17" s="24"/>
       <c r="AA17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>13</v>
@@ -5322,7 +5789,7 @@
       <c r="H18" s="3">
         <v>2525</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="24"/>
       <c r="K18">
         <v>160</v>
       </c>
@@ -5351,16 +5818,25 @@
       <c r="Y18" t="s">
         <v>10</v>
       </c>
-      <c r="Z18" s="23"/>
+      <c r="Z18" s="24"/>
       <c r="AA18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -5379,7 +5855,7 @@
       <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="24"/>
       <c r="K19">
         <v>20</v>
       </c>
@@ -5401,16 +5877,23 @@
       <c r="Y19" t="s">
         <v>13</v>
       </c>
-      <c r="Z19" s="23"/>
+      <c r="Z19" s="24"/>
       <c r="AA19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD19" s="5"/>
+      <c r="AF19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5427,7 +5910,7 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="24"/>
       <c r="K20">
         <v>28</v>
       </c>
@@ -5447,13 +5930,20 @@
       <c r="Y20" t="s">
         <v>216</v>
       </c>
-      <c r="Z20" s="23"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z20" s="24"/>
+      <c r="AA20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -5470,7 +5960,7 @@
       <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="24"/>
       <c r="K21">
         <v>200</v>
       </c>
@@ -5492,13 +5982,20 @@
       <c r="Y21">
         <v>15</v>
       </c>
-      <c r="Z21" s="23"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z21" s="24"/>
+      <c r="AA21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5517,7 +6014,7 @@
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="24"/>
       <c r="K22" t="s">
         <v>12</v>
       </c>
@@ -5530,13 +6027,18 @@
       <c r="Y22" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="23"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z22" s="24"/>
+      <c r="AA22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="24"/>
       <c r="C23">
         <v>-70</v>
       </c>
@@ -5555,7 +6057,7 @@
       <c r="H23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="24"/>
       <c r="K23" t="s">
         <v>10</v>
       </c>
@@ -5568,22 +6070,29 @@
       <c r="Y23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z23" s="23"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B1:B23"/>
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="Z1:Z23"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:I23"/>
-    <mergeCell ref="B1:B23"/>
-    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5605,7 +6114,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5619,7 +6128,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5628,7 +6137,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -5640,7 +6149,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -5649,7 +6158,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
         <v>89</v>
       </c>
@@ -5658,7 +6167,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
         <v>90</v>
       </c>
@@ -5667,7 +6176,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>91</v>
       </c>
@@ -5676,7 +6185,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>92</v>
       </c>
@@ -5685,7 +6194,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
         <v>93</v>
       </c>
@@ -5694,7 +6203,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
@@ -5703,7 +6212,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
         <v>95</v>
       </c>
@@ -5712,7 +6221,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -5721,7 +6230,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" t="s">
         <v>96</v>
       </c>
@@ -5731,7 +6240,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -5740,7 +6249,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -5750,7 +6259,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16">
         <v>3</v>
       </c>
@@ -5759,7 +6268,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="24"/>
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -5768,7 +6277,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -5777,7 +6286,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -5786,7 +6295,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -5795,7 +6304,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21">
         <v>6</v>
       </c>
@@ -5804,7 +6313,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22">
         <v>7</v>
       </c>
@@ -5813,7 +6322,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -5822,7 +6331,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="8" t="s">
         <v>101</v>
       </c>
@@ -5831,7 +6340,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8" t="s">
         <v>102</v>
       </c>
@@ -5840,7 +6349,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
@@ -5849,7 +6358,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8" t="s">
         <v>104</v>
       </c>
@@ -5858,7 +6367,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="8" t="s">
         <v>105</v>
       </c>
@@ -5867,7 +6376,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8" t="s">
         <v>106</v>
       </c>
@@ -5876,7 +6385,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="8" t="s">
         <v>107</v>
       </c>
@@ -5885,7 +6394,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8" t="s">
         <v>108</v>
       </c>
@@ -5894,7 +6403,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="8" t="s">
         <v>109</v>
       </c>
@@ -5903,7 +6412,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="8" t="s">
         <v>110</v>
       </c>
@@ -5912,7 +6421,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="8" t="s">
         <v>111</v>
       </c>
@@ -5921,7 +6430,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="24"/>
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -5930,7 +6439,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" t="s">
         <v>112</v>
       </c>
@@ -5939,7 +6448,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="24"/>
       <c r="B37" t="s">
         <v>113</v>
       </c>
@@ -5948,7 +6457,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="24"/>
       <c r="B38" t="s">
         <v>114</v>
       </c>
@@ -5957,7 +6466,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="24"/>
       <c r="B39" t="s">
         <v>114</v>
       </c>
@@ -5966,7 +6475,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="24"/>
       <c r="B40">
         <v>10</v>
       </c>
@@ -5975,7 +6484,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="24"/>
       <c r="B41">
         <v>11</v>
       </c>
@@ -5984,7 +6493,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="24"/>
       <c r="B42">
         <v>12</v>
       </c>
@@ -5993,7 +6502,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="24"/>
       <c r="B43">
         <v>13</v>
       </c>
@@ -6002,7 +6511,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="24"/>
       <c r="B44" t="s">
         <v>115</v>
       </c>
@@ -6011,7 +6520,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="24"/>
       <c r="B45" t="s">
         <v>116</v>
       </c>
@@ -6020,7 +6529,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="24"/>
       <c r="B46" t="s">
         <v>117</v>
       </c>
@@ -6029,7 +6538,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="24"/>
       <c r="B47" t="s">
         <v>118</v>
       </c>
@@ -6038,7 +6547,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="24"/>
       <c r="B48" t="s">
         <v>119</v>
       </c>
@@ -6047,7 +6556,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="24"/>
       <c r="B49" t="s">
         <v>120</v>
       </c>
@@ -6056,7 +6565,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="24"/>
       <c r="B50">
         <v>15</v>
       </c>

--- a/GRE/Roadmap/Practice.xlsx
+++ b/GRE/Roadmap/Practice.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9450" windowWidth="22260" windowHeight="12645" tabRatio="556" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="13050" windowWidth="22260" windowHeight="12645" tabRatio="556" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Catalogue" sheetId="1" r:id="rId1"/>
     <sheet name="Manhattan" sheetId="2" r:id="rId2"/>
     <sheet name="Guide_Problem_sets" sheetId="3" r:id="rId3"/>
     <sheet name="ETS" sheetId="4" r:id="rId4"/>
+    <sheet name="Verbal(Kaplan)" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Manhattan!$AB$1:$AB$74</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="293">
   <si>
     <t>Number</t>
   </si>
@@ -702,9 +706,6 @@
     <t>B E H</t>
   </si>
   <si>
-    <t>4_Divisibility and Primes</t>
-  </si>
-  <si>
     <t>A C E</t>
   </si>
   <si>
@@ -757,6 +758,153 @@
   </si>
   <si>
     <t>38_75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A B </t>
+  </si>
+  <si>
+    <t>A B D</t>
+  </si>
+  <si>
+    <t>FGH</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>15|Number Properties</t>
+  </si>
+  <si>
+    <t>test_15</t>
+  </si>
+  <si>
+    <t>I_III</t>
+  </si>
+  <si>
+    <t>II_V</t>
+  </si>
+  <si>
+    <t>IV_V</t>
+  </si>
+  <si>
+    <t>105/117</t>
+  </si>
+  <si>
+    <t>I_II_V</t>
+  </si>
+  <si>
+    <t>Week_05</t>
+  </si>
+  <si>
+    <t>assumption,comp,</t>
+  </si>
+  <si>
+    <t>WEEK_05</t>
+  </si>
+  <si>
+    <t>16|Word Problem</t>
+  </si>
+  <si>
+    <t>test_16</t>
+  </si>
+  <si>
+    <t>17|Two var Word Problem</t>
+  </si>
+  <si>
+    <t>test_17</t>
+  </si>
+  <si>
+    <t>20|Ratios</t>
+  </si>
+  <si>
+    <t>test_18</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>I_IV</t>
+  </si>
+  <si>
+    <t>19|Variables in choice prob</t>
+  </si>
+  <si>
+    <t>test_19</t>
+  </si>
+  <si>
+    <t>18|Rate and Work</t>
+  </si>
+  <si>
+    <t>test_20</t>
+  </si>
+  <si>
+    <t>test_21</t>
+  </si>
+  <si>
+    <t>test_22</t>
+  </si>
+  <si>
+    <t>test_23</t>
+  </si>
+  <si>
+    <t>22|Mean &amp; Standarad Dev</t>
+  </si>
+  <si>
+    <t>21|Avg,wAvg,Median &amp; Mode</t>
+  </si>
+  <si>
+    <t>13_4</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>24|Data Interpretation</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>Text Completion</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sr.No</t>
+  </si>
+  <si>
+    <t>C D</t>
+  </si>
+  <si>
+    <t>A F</t>
+  </si>
+  <si>
+    <t>C D I</t>
+  </si>
+  <si>
+    <t>C D H</t>
+  </si>
+  <si>
+    <t>AF I</t>
+  </si>
+  <si>
+    <t>A F H</t>
+  </si>
+  <si>
+    <t>Sen.Equ</t>
+  </si>
+  <si>
+    <t>D F</t>
+  </si>
+  <si>
+    <t>C F</t>
   </si>
 </sst>
 </file>
@@ -840,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -871,11 +1019,17 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -886,9 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1170,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1332,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1222,19 +1373,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1292,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G20" si="0">D4/(D4+E4+F4)*100</f>
+        <f t="shared" ref="G4:G29" si="0">D4/(D4+E4+F4)*100</f>
         <v>75</v>
       </c>
       <c r="H4" t="s">
@@ -1366,19 +1517,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1501,19 +1652,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1672,19 +1823,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1746,15 +1897,291 @@
         <v>217</v>
       </c>
       <c r="I20" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44564</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44564</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44564</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>81.818181818181827</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44565</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44566</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>84.444444444444443</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44567</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>44.680851063829785</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44568</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>79.166666666666657</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44569</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G6">
     <cfRule type="colorScale" priority="4">
@@ -1780,7 +2207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:G17 G19:G20">
+  <conditionalFormatting sqref="G13:G17 G19:G20 G22:G29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="70"/>
@@ -1809,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T74"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="U13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,13 +2249,14 @@
     <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1843,7 +2271,7 @@
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="28" t="s">
         <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1858,7 +2286,7 @@
       <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="28" t="s">
         <v>121</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1876,21 +2304,51 @@
       <c r="Q1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="28" t="s">
         <v>222</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>218</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1903,7 +2361,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="28"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
@@ -1916,7 +2374,7 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="28"/>
       <c r="M2" t="s">
         <v>125</v>
       </c>
@@ -1932,19 +2390,47 @@
       <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="24"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="3">
         <v>33</v>
       </c>
       <c r="T2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="28"/>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC2">
+        <v>120</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +2443,7 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="4"/>
       <c r="I3">
         <v>1</v>
@@ -1968,7 +2454,7 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="28"/>
       <c r="M3" t="s">
         <v>13</v>
       </c>
@@ -1984,19 +2470,47 @@
       <c r="Q3">
         <v>80</v>
       </c>
-      <c r="R3" s="24"/>
+      <c r="R3" s="28"/>
       <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="28"/>
+      <c r="V3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -2009,7 +2523,7 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>118</v>
       </c>
@@ -2022,7 +2536,7 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="24"/>
+      <c r="L4" s="28"/>
       <c r="M4" t="s">
         <v>13</v>
       </c>
@@ -2038,19 +2552,47 @@
       <c r="Q4" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="24"/>
+      <c r="R4" s="28"/>
       <c r="S4" t="s">
         <v>12</v>
       </c>
       <c r="T4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="28"/>
+      <c r="V4" t="s">
+        <v>251</v>
+      </c>
+      <c r="W4">
+        <v>4000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2063,7 +2605,7 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="3">
         <v>12</v>
       </c>
@@ -2077,7 +2619,7 @@
       <c r="K5">
         <v>37</v>
       </c>
-      <c r="L5" s="24"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="4"/>
       <c r="N5" t="s">
         <v>11</v>
@@ -2091,19 +2633,45 @@
       <c r="Q5">
         <v>20</v>
       </c>
-      <c r="R5" s="24"/>
+      <c r="R5" s="28"/>
       <c r="S5" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="28"/>
+      <c r="V5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2684,7 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2129,7 +2697,7 @@
       <c r="K6">
         <v>720</v>
       </c>
-      <c r="L6" s="24"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="4"/>
       <c r="N6" t="s">
         <v>11</v>
@@ -2143,19 +2711,47 @@
       <c r="Q6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="24"/>
+      <c r="R6" s="28"/>
       <c r="S6" t="s">
         <v>13</v>
       </c>
       <c r="T6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="28"/>
+      <c r="V6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6">
+        <v>90.4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -2168,7 +2764,7 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="28"/>
       <c r="H7">
         <v>7.5</v>
       </c>
@@ -2181,7 +2777,7 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="24"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="19" t="s">
         <v>126</v>
       </c>
@@ -2197,19 +2793,45 @@
       <c r="Q7">
         <v>30</v>
       </c>
-      <c r="R7" s="24"/>
+      <c r="R7" s="28"/>
       <c r="S7" t="s">
         <v>12</v>
       </c>
       <c r="T7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="28"/>
+      <c r="V7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA7">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2844,7 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="28"/>
       <c r="H8" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +2857,7 @@
       <c r="K8">
         <v>2</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="28"/>
       <c r="M8" t="s">
         <v>127</v>
       </c>
@@ -2251,19 +2873,47 @@
       <c r="Q8">
         <v>11</v>
       </c>
-      <c r="R8" s="24"/>
+      <c r="R8" s="28"/>
       <c r="S8" t="s">
         <v>10</v>
       </c>
       <c r="T8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="28"/>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -2276,7 +2926,7 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="28"/>
       <c r="H9" t="s">
         <v>12</v>
       </c>
@@ -2289,7 +2939,7 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="24"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="3" t="s">
         <v>128</v>
       </c>
@@ -2305,19 +2955,47 @@
       <c r="Q9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="24"/>
+      <c r="R9" s="28"/>
       <c r="S9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="28"/>
+      <c r="V9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>30</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -2330,7 +3008,7 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="28"/>
       <c r="H10" t="s">
         <v>12</v>
       </c>
@@ -2343,7 +3021,7 @@
       <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="28"/>
       <c r="M10" t="s">
         <v>13</v>
       </c>
@@ -2359,19 +3037,47 @@
       <c r="Q10" s="5">
         <v>10</v>
       </c>
-      <c r="R10" s="24"/>
+      <c r="R10" s="28"/>
       <c r="S10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" s="28"/>
+      <c r="V10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="28"/>
       <c r="C11">
         <v>7.4</v>
       </c>
@@ -2384,7 +3090,7 @@
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="28"/>
       <c r="H11">
         <v>144</v>
       </c>
@@ -2397,7 +3103,7 @@
       <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="28"/>
       <c r="M11" t="s">
         <v>11</v>
       </c>
@@ -2413,19 +3119,47 @@
       <c r="Q11" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="24"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" s="28"/>
+      <c r="V11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11">
+        <v>20</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="28"/>
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -2438,7 +3172,7 @@
       <c r="F12">
         <v>216</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="28"/>
       <c r="H12" t="s">
         <v>21</v>
       </c>
@@ -2449,7 +3183,7 @@
         <v>50</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="28"/>
       <c r="M12" t="s">
         <v>13</v>
       </c>
@@ -2465,19 +3199,47 @@
       <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="24"/>
+      <c r="R12" s="28"/>
       <c r="S12" s="5" t="s">
         <v>128</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" s="28"/>
+      <c r="V12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <v>50</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3">
         <v>143</v>
@@ -2486,7 +3248,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="28"/>
       <c r="H13" t="s">
         <v>11</v>
       </c>
@@ -2499,7 +3261,7 @@
       <c r="K13" s="3">
         <v>19.312000000000001</v>
       </c>
-      <c r="L13" s="24"/>
+      <c r="L13" s="28"/>
       <c r="M13" t="s">
         <v>11</v>
       </c>
@@ -2515,19 +3277,47 @@
       <c r="Q13">
         <v>12</v>
       </c>
-      <c r="R13" s="24"/>
+      <c r="R13" s="28"/>
       <c r="S13">
         <v>6</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="U13" s="28"/>
+      <c r="V13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="W13" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3">
         <v>2</v>
       </c>
@@ -2540,7 +3330,7 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="28"/>
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +3343,7 @@
       <c r="K14">
         <v>43</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="3" t="s">
         <v>129</v>
       </c>
@@ -2567,19 +3357,45 @@
         <v>11</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="24"/>
+      <c r="R14" s="28"/>
       <c r="S14" t="s">
         <v>21</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" s="28"/>
+      <c r="V14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2592,7 +3408,7 @@
       <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +3421,7 @@
       <c r="K15">
         <v>15</v>
       </c>
-      <c r="L15" s="24"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="3" t="s">
         <v>11</v>
       </c>
@@ -2621,25 +3437,51 @@
       <c r="Q15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="24"/>
+      <c r="R15" s="28"/>
       <c r="S15" s="3">
         <v>1</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" s="28"/>
+      <c r="V15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="4"/>
+      <c r="X15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="4"/>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="28"/>
       <c r="H16" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +3494,7 @@
       <c r="K16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="28"/>
       <c r="M16" t="s">
         <v>130</v>
       </c>
@@ -2668,19 +3510,45 @@
       <c r="Q16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="24"/>
+      <c r="R16" s="28"/>
       <c r="S16" t="s">
         <v>11</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="28"/>
+      <c r="V16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
@@ -2688,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="24"/>
+      <c r="G17" s="28"/>
       <c r="H17" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +3569,7 @@
       <c r="K17" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="24"/>
+      <c r="L17" s="28"/>
       <c r="M17" t="s">
         <v>12</v>
       </c>
@@ -2717,15 +3585,43 @@
       <c r="Q17" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="24"/>
+      <c r="R17" s="28"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="28"/>
+      <c r="V17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="W17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="28"/>
       <c r="C18" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +3629,7 @@
         <v>9</v>
       </c>
       <c r="F18"/>
-      <c r="G18" s="24"/>
+      <c r="G18" s="28"/>
       <c r="H18" t="s">
         <v>11</v>
       </c>
@@ -2746,7 +3642,7 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="24"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="3" t="s">
         <v>13</v>
       </c>
@@ -2762,19 +3658,43 @@
       <c r="Q18" t="s">
         <v>12</v>
       </c>
-      <c r="R18" s="24"/>
+      <c r="R18" s="28"/>
       <c r="S18" t="s">
         <v>220</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="U18" s="28"/>
+      <c r="V18" s="4"/>
+      <c r="W18" t="s">
+        <v>10</v>
+      </c>
+      <c r="X18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="28"/>
       <c r="C19" t="s">
         <v>11</v>
       </c>
@@ -2782,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="F19"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="28"/>
       <c r="H19" t="s">
         <v>12</v>
       </c>
@@ -2796,7 +3716,7 @@
       <c r="K19" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="24"/>
+      <c r="L19" s="28"/>
       <c r="M19" t="s">
         <v>12</v>
       </c>
@@ -2812,17 +3732,43 @@
       <c r="Q19" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="24"/>
+      <c r="R19" s="28"/>
       <c r="S19" s="4"/>
       <c r="T19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="28"/>
+      <c r="V19" t="s">
+        <v>10</v>
+      </c>
+      <c r="W19" t="s">
+        <v>11</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19">
+        <v>66</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC19">
+        <v>55</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +3776,7 @@
         <v>13</v>
       </c>
       <c r="F20"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="28"/>
       <c r="I20">
         <v>30</v>
       </c>
@@ -2840,7 +3786,7 @@
       <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="3" t="s">
         <v>10</v>
       </c>
@@ -2856,19 +3802,45 @@
       <c r="Q20" t="s">
         <v>10</v>
       </c>
-      <c r="R20" s="24"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="3">
         <v>2</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="28"/>
+      <c r="V20" t="s">
+        <v>13</v>
+      </c>
+      <c r="W20" s="4"/>
+      <c r="X20">
+        <v>49</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC20">
+        <v>680</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -2876,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="F21"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="28"/>
       <c r="I21">
         <v>9</v>
       </c>
@@ -2886,7 +3858,7 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="24"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="3" t="s">
         <v>131</v>
       </c>
@@ -2902,24 +3874,52 @@
       <c r="Q21" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="24"/>
+      <c r="R21" s="28"/>
       <c r="S21" t="s">
         <v>12</v>
       </c>
       <c r="T21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="28"/>
+      <c r="V21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" t="s">
+        <v>11</v>
+      </c>
+      <c r="X21">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC21">
+        <v>108</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="28"/>
       <c r="I22">
         <v>3</v>
       </c>
@@ -2929,7 +3929,7 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="24"/>
+      <c r="L22" s="28"/>
       <c r="M22" t="s">
         <v>11</v>
       </c>
@@ -2945,24 +3945,47 @@
       <c r="Q22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R22" s="24"/>
+      <c r="R22" s="28"/>
       <c r="S22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T22">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="28"/>
+      <c r="V22" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="4"/>
+      <c r="AA22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB22">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="28"/>
       <c r="I23">
         <v>1</v>
       </c>
@@ -2972,7 +3995,7 @@
       <c r="K23" s="3">
         <v>270</v>
       </c>
-      <c r="L23" s="24"/>
+      <c r="L23" s="28"/>
       <c r="M23" t="s">
         <v>11</v>
       </c>
@@ -2988,24 +4011,49 @@
       <c r="Q23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="24"/>
+      <c r="R23" s="28"/>
       <c r="S23" s="3">
         <v>70</v>
       </c>
       <c r="T23">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="28"/>
+      <c r="V23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="28"/>
       <c r="I24" s="3">
         <v>12</v>
       </c>
@@ -3015,7 +4063,7 @@
       <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="24"/>
+      <c r="L24" s="28"/>
       <c r="M24" t="s">
         <v>12</v>
       </c>
@@ -3031,24 +4079,47 @@
       <c r="Q24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R24" s="24"/>
+      <c r="R24" s="28"/>
       <c r="S24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T24" s="5" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="28"/>
+      <c r="V24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="28"/>
       <c r="I25" t="s">
         <v>12</v>
       </c>
@@ -3058,7 +4129,7 @@
       <c r="K25" t="s">
         <v>10</v>
       </c>
-      <c r="L25" s="24"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="3" t="s">
         <v>10</v>
       </c>
@@ -3074,22 +4145,47 @@
       <c r="Q25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="24"/>
+      <c r="R25" s="28"/>
       <c r="S25" s="4"/>
       <c r="T25" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="28"/>
+      <c r="V25">
+        <v>385</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="28"/>
       <c r="I26" t="s">
         <v>13</v>
       </c>
@@ -3099,7 +4195,7 @@
       <c r="K26" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="24"/>
+      <c r="L26" s="28"/>
       <c r="M26" t="s">
         <v>13</v>
       </c>
@@ -3115,24 +4211,43 @@
       <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="24"/>
+      <c r="R26" s="28"/>
       <c r="S26" s="3">
         <v>11</v>
       </c>
       <c r="T26" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="28"/>
+      <c r="V26" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="28"/>
       <c r="I27" s="8" t="s">
         <v>10</v>
       </c>
@@ -3140,7 +4255,7 @@
         <v>11</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="24"/>
+      <c r="L27" s="28"/>
       <c r="M27" t="s">
         <v>21</v>
       </c>
@@ -3156,20 +4271,39 @@
       <c r="Q27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R27" s="24"/>
+      <c r="R27" s="28"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="28"/>
+      <c r="V27" s="3">
+        <v>13</v>
+      </c>
+      <c r="X27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
-      <c r="G28" s="24"/>
+      <c r="G28" s="28"/>
       <c r="I28" s="8" t="s">
         <v>11</v>
       </c>
@@ -3177,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="24"/>
+      <c r="L28" s="28"/>
       <c r="M28" s="15" t="s">
         <v>132</v>
       </c>
@@ -3191,24 +4325,41 @@
       <c r="Q28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="24"/>
+      <c r="R28" s="28"/>
       <c r="S28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T28" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="28"/>
+      <c r="V28">
+        <v>299</v>
+      </c>
+      <c r="X28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="AA28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="24"/>
+      <c r="G29" s="28"/>
       <c r="I29" s="8" t="s">
         <v>11</v>
       </c>
@@ -3218,7 +4369,7 @@
       <c r="K29">
         <v>1778</v>
       </c>
-      <c r="L29" s="24"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="4"/>
       <c r="N29" t="s">
         <v>142</v>
@@ -3232,24 +4383,43 @@
       <c r="Q29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R29" s="24"/>
+      <c r="R29" s="28"/>
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="28"/>
+      <c r="V29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="24"/>
+      <c r="G30" s="28"/>
       <c r="I30" s="8" t="s">
         <v>12</v>
       </c>
@@ -3259,7 +4429,7 @@
       <c r="K30" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="5" t="s">
         <v>13</v>
       </c>
@@ -3275,24 +4445,41 @@
       <c r="Q30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R30" s="24"/>
+      <c r="R30" s="28"/>
       <c r="S30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="28"/>
+      <c r="V30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X30" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="4"/>
+      <c r="AA30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB30">
+        <v>67</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="24"/>
+      <c r="G31" s="28"/>
       <c r="I31" s="9" t="s">
         <v>13</v>
       </c>
@@ -3302,7 +4489,7 @@
       <c r="K31" t="s">
         <v>10</v>
       </c>
-      <c r="L31" s="24"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="5" t="s">
         <v>10</v>
       </c>
@@ -3318,24 +4505,43 @@
       <c r="Q31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R31" s="24"/>
+      <c r="R31" s="28"/>
       <c r="S31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="28"/>
+      <c r="V31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X31" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="28"/>
       <c r="I32" s="9" t="s">
         <v>13</v>
       </c>
@@ -3343,7 +4549,7 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="24"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="5" t="s">
         <v>11</v>
       </c>
@@ -3359,24 +4565,43 @@
       <c r="Q32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R32" s="24"/>
+      <c r="R32" s="28"/>
       <c r="S32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T32" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="28"/>
+      <c r="V32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC32">
+        <v>22457</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="24"/>
+      <c r="G33" s="28"/>
       <c r="I33" s="9" t="s">
         <v>13</v>
       </c>
@@ -3386,7 +4611,7 @@
       <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="24"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="3" t="s">
         <v>12</v>
       </c>
@@ -3397,24 +4622,41 @@
         <v>13</v>
       </c>
       <c r="Q33" s="4"/>
-      <c r="R33" s="24"/>
+      <c r="R33" s="28"/>
       <c r="S33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T33" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="28"/>
+      <c r="V33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="28"/>
       <c r="I34" s="9" t="s">
         <v>19</v>
       </c>
@@ -3424,7 +4666,7 @@
       <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="3" t="s">
         <v>21</v>
       </c>
@@ -3437,24 +4679,41 @@
       <c r="Q34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="24"/>
+      <c r="R34" s="28"/>
       <c r="S34" s="5" t="s">
         <v>11</v>
       </c>
       <c r="T34" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="28"/>
+      <c r="V34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="4"/>
+      <c r="Y34" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="24"/>
+      <c r="G35" s="28"/>
       <c r="I35" s="8" t="s">
         <v>12</v>
       </c>
@@ -3464,7 +4723,7 @@
       <c r="K35" t="s">
         <v>13</v>
       </c>
-      <c r="L35" s="24"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="3" t="s">
         <v>133</v>
       </c>
@@ -3477,24 +4736,40 @@
       <c r="Q35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="24"/>
+      <c r="R35" s="28"/>
       <c r="S35" s="3" t="s">
         <v>221</v>
       </c>
       <c r="T35" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="28"/>
+      <c r="V35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="28"/>
       <c r="I36" s="8" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +4779,7 @@
       <c r="K36" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="24"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="3" t="s">
         <v>10</v>
       </c>
@@ -3514,24 +4789,40 @@
       <c r="Q36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R36" s="24"/>
+      <c r="R36" s="28"/>
       <c r="S36" s="5" t="s">
         <v>21</v>
       </c>
       <c r="T36" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="28"/>
+      <c r="V36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC36">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="28"/>
       <c r="I37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3541,7 +4832,7 @@
       <c r="K37" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="24"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="3" t="s">
         <v>10</v>
       </c>
@@ -3551,22 +4842,36 @@
       <c r="Q37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="24"/>
+      <c r="R37" s="28"/>
       <c r="S37" s="4"/>
       <c r="T37" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="28"/>
+      <c r="V37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB37" s="4"/>
+      <c r="AC37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="24"/>
+      <c r="G38" s="28"/>
       <c r="I38" s="9" t="s">
         <v>10</v>
       </c>
@@ -3576,7 +4881,7 @@
       <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="L38" s="24"/>
+      <c r="L38" s="28"/>
       <c r="M38" s="5" t="s">
         <v>12</v>
       </c>
@@ -3586,24 +4891,38 @@
       <c r="Q38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="24"/>
+      <c r="R38" s="28"/>
       <c r="S38">
         <v>110</v>
       </c>
       <c r="T38" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="28"/>
+      <c r="V38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="28"/>
       <c r="I39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3613,7 +4932,7 @@
       <c r="K39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="24"/>
+      <c r="L39" s="28"/>
       <c r="M39" s="3" t="s">
         <v>11</v>
       </c>
@@ -3623,24 +4942,40 @@
       <c r="Q39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R39" s="24"/>
+      <c r="R39" s="28"/>
       <c r="S39" s="3" t="s">
         <v>21</v>
       </c>
       <c r="T39" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="28"/>
+      <c r="V39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="28"/>
       <c r="I40" s="8" t="s">
         <v>10</v>
       </c>
@@ -3650,7 +4985,7 @@
       <c r="K40" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="24"/>
+      <c r="L40" s="28"/>
       <c r="M40" s="20" t="s">
         <v>128</v>
       </c>
@@ -3658,24 +4993,40 @@
         <v>144</v>
       </c>
       <c r="Q40" s="4"/>
-      <c r="R40" s="24"/>
+      <c r="R40" s="28"/>
       <c r="S40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T40" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="28"/>
+      <c r="V40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="28"/>
       <c r="I41" s="8" t="s">
         <v>12</v>
       </c>
@@ -3685,7 +5036,7 @@
       <c r="K41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="24"/>
+      <c r="L41" s="28"/>
       <c r="M41" s="18" t="s">
         <v>134</v>
       </c>
@@ -3695,19 +5046,35 @@
       <c r="Q41" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="24"/>
+      <c r="R41" s="28"/>
       <c r="S41" s="4"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="28"/>
+      <c r="V41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="24"/>
+      <c r="G42" s="28"/>
       <c r="I42" s="9" t="s">
         <v>13</v>
       </c>
@@ -3717,7 +5084,7 @@
       <c r="K42" t="s">
         <v>10</v>
       </c>
-      <c r="L42" s="24"/>
+      <c r="L42" s="28"/>
       <c r="M42" s="18" t="s">
         <v>135</v>
       </c>
@@ -3727,19 +5094,35 @@
       <c r="Q42" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="24"/>
+      <c r="R42" s="28"/>
       <c r="S42" s="4"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="28"/>
+      <c r="V42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="28"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="28"/>
       <c r="I43">
         <v>-3</v>
       </c>
@@ -3749,7 +5132,7 @@
       <c r="K43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="24"/>
+      <c r="L43" s="28"/>
       <c r="M43" s="18" t="s">
         <v>10</v>
       </c>
@@ -3759,19 +5142,31 @@
       <c r="Q43" t="s">
         <v>12</v>
       </c>
-      <c r="R43" s="24"/>
+      <c r="R43" s="28"/>
       <c r="S43" s="4"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="28"/>
+      <c r="V43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="28"/>
       <c r="I44">
         <v>6</v>
       </c>
@@ -3781,7 +5176,7 @@
       <c r="K44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="24"/>
+      <c r="L44" s="28"/>
       <c r="M44" s="18" t="s">
         <v>11</v>
       </c>
@@ -3789,19 +5184,35 @@
         <v>11</v>
       </c>
       <c r="Q44" s="4"/>
-      <c r="R44" s="24"/>
+      <c r="R44" s="28"/>
       <c r="S44" s="4"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="28"/>
+      <c r="V44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="24"/>
+      <c r="G45" s="28"/>
       <c r="I45">
         <v>4</v>
       </c>
@@ -3811,7 +5222,7 @@
       <c r="K45" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="24"/>
+      <c r="L45" s="28"/>
       <c r="M45" s="20" t="s">
         <v>13</v>
       </c>
@@ -3821,19 +5232,31 @@
       <c r="Q45" t="s">
         <v>12</v>
       </c>
-      <c r="R45" s="24"/>
+      <c r="R45" s="28"/>
       <c r="S45" s="4"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="28"/>
+      <c r="V45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="28"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="24"/>
+      <c r="G46" s="28"/>
       <c r="I46" t="s">
         <v>10</v>
       </c>
@@ -3841,7 +5264,7 @@
       <c r="K46" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="24"/>
+      <c r="L46" s="28"/>
       <c r="M46" s="18" t="s">
         <v>13</v>
       </c>
@@ -3849,18 +5272,32 @@
         <v>13</v>
       </c>
       <c r="Q46" s="4"/>
-      <c r="R46" s="24"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA46" s="4"/>
+      <c r="AB46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="24"/>
+      <c r="G47" s="28"/>
       <c r="I47" s="5" t="s">
         <v>14</v>
       </c>
@@ -3870,7 +5307,7 @@
       <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="24"/>
+      <c r="L47" s="28"/>
       <c r="M47" s="18" t="s">
         <v>13</v>
       </c>
@@ -3880,18 +5317,29 @@
       <c r="Q47" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="24"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="AB47" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="24"/>
+      <c r="G48" s="28"/>
       <c r="I48" t="s">
         <v>10</v>
       </c>
@@ -3899,7 +5347,7 @@
         <v>13</v>
       </c>
       <c r="K48" s="4"/>
-      <c r="L48" s="24"/>
+      <c r="L48" s="28"/>
       <c r="M48" s="20" t="s">
         <v>10</v>
       </c>
@@ -3909,18 +5357,28 @@
       <c r="Q48" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="24"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="24"/>
+      <c r="G49" s="28"/>
       <c r="I49" t="s">
         <v>12</v>
       </c>
@@ -3930,7 +5388,7 @@
       <c r="K49" t="s">
         <v>12</v>
       </c>
-      <c r="L49" s="24"/>
+      <c r="L49" s="28"/>
       <c r="M49" s="18" t="s">
         <v>11</v>
       </c>
@@ -3940,18 +5398,28 @@
       <c r="Q49" t="s">
         <v>12</v>
       </c>
-      <c r="R49" s="24"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="24"/>
+      <c r="G50" s="28"/>
       <c r="I50" t="s">
         <v>13</v>
       </c>
@@ -3961,7 +5429,7 @@
       <c r="K50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="24"/>
+      <c r="L50" s="28"/>
       <c r="M50" s="20" t="s">
         <v>21</v>
       </c>
@@ -3971,18 +5439,25 @@
       <c r="Q50" t="s">
         <v>13</v>
       </c>
-      <c r="R50" s="24"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="24"/>
+      <c r="G51" s="28"/>
       <c r="I51" t="s">
         <v>10</v>
       </c>
@@ -3990,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="24"/>
+      <c r="L51" s="28"/>
       <c r="M51" s="18" t="s">
         <v>21</v>
       </c>
@@ -4000,18 +5475,25 @@
       <c r="Q51" t="s">
         <v>10</v>
       </c>
-      <c r="R51" s="24"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="24"/>
+      <c r="G52" s="28"/>
       <c r="I52" t="s">
         <v>12</v>
       </c>
@@ -4021,7 +5503,7 @@
       <c r="K52" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="24"/>
+      <c r="L52" s="28"/>
       <c r="M52" s="20" t="s">
         <v>11</v>
       </c>
@@ -4031,18 +5513,25 @@
       <c r="Q52" t="s">
         <v>12</v>
       </c>
-      <c r="R52" s="24"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="24"/>
+      <c r="G53" s="28"/>
       <c r="I53" t="s">
         <v>10</v>
       </c>
@@ -4052,22 +5541,27 @@
       <c r="K53" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="24"/>
+      <c r="L53" s="28"/>
       <c r="Q53" t="s">
         <v>10</v>
       </c>
-      <c r="R53" s="24"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="4"/>
+      <c r="Y53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="24"/>
+      <c r="G54" s="28"/>
       <c r="I54" t="s">
         <v>21</v>
       </c>
@@ -4077,22 +5571,29 @@
       <c r="K54" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="24"/>
+      <c r="L54" s="28"/>
       <c r="Q54" t="s">
         <v>171</v>
       </c>
-      <c r="R54" s="24"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="28"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="24"/>
+      <c r="G55" s="28"/>
       <c r="I55">
         <v>12.5</v>
       </c>
@@ -4102,22 +5603,29 @@
       <c r="K55" t="s">
         <v>13</v>
       </c>
-      <c r="L55" s="24"/>
+      <c r="L55" s="28"/>
       <c r="Q55" t="s">
         <v>13</v>
       </c>
-      <c r="R55" s="24"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="24"/>
+      <c r="G56" s="28"/>
       <c r="I56" s="3">
         <v>9</v>
       </c>
@@ -4127,253 +5635,302 @@
       <c r="K56" t="s">
         <v>13</v>
       </c>
-      <c r="L56" s="24"/>
+      <c r="L56" s="28"/>
       <c r="Q56" t="s">
         <v>10</v>
       </c>
-      <c r="R56" s="24"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="28"/>
       <c r="F57"/>
-      <c r="G57" s="24"/>
+      <c r="G57" s="28"/>
       <c r="K57" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="24"/>
+      <c r="L57" s="28"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="24"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="Y57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="28"/>
       <c r="F58"/>
-      <c r="G58" s="24"/>
+      <c r="G58" s="28"/>
       <c r="K58" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="24"/>
-      <c r="R58" s="24"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="28"/>
       <c r="F59"/>
-      <c r="G59" s="24"/>
+      <c r="G59" s="28"/>
       <c r="K59" t="s">
         <v>12</v>
       </c>
-      <c r="L59" s="24"/>
-      <c r="R59" s="24"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="Y59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="28"/>
       <c r="F60"/>
-      <c r="G60" s="24"/>
+      <c r="G60" s="28"/>
       <c r="K60">
         <v>0</v>
       </c>
-      <c r="L60" s="24"/>
-      <c r="R60" s="24"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="Y60" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="28"/>
       <c r="F61"/>
-      <c r="G61" s="24"/>
+      <c r="G61" s="28"/>
       <c r="K61">
         <v>2</v>
       </c>
-      <c r="L61" s="24"/>
-      <c r="R61" s="24"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="Y61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="28"/>
       <c r="F62"/>
-      <c r="G62" s="24"/>
+      <c r="G62" s="28"/>
       <c r="K62" s="3">
         <v>24</v>
       </c>
-      <c r="L62" s="24"/>
-      <c r="R62" s="24"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="Y62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="28"/>
       <c r="F63"/>
-      <c r="G63" s="24"/>
+      <c r="G63" s="28"/>
       <c r="K63" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="24"/>
-      <c r="R63" s="24"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="Y63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="28"/>
       <c r="F64"/>
-      <c r="G64" s="24"/>
+      <c r="G64" s="28"/>
       <c r="K64" s="3">
         <v>25</v>
       </c>
-      <c r="L64" s="24"/>
-      <c r="R64" s="24"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="Y64" s="4"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="28"/>
       <c r="F65"/>
-      <c r="G65" s="24"/>
+      <c r="G65" s="28"/>
       <c r="K65">
         <v>317</v>
       </c>
-      <c r="L65" s="24"/>
-      <c r="R65" s="24"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="Y65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="28"/>
       <c r="F66"/>
-      <c r="G66" s="24"/>
+      <c r="G66" s="28"/>
       <c r="K66" s="3">
         <v>2</v>
       </c>
-      <c r="L66" s="24"/>
-      <c r="R66" s="24"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="U66" s="28"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="28"/>
       <c r="F67"/>
-      <c r="G67" s="24"/>
+      <c r="G67" s="28"/>
       <c r="K67">
         <v>11</v>
       </c>
-      <c r="L67" s="24"/>
-      <c r="R67" s="24"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="U67" s="28"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="28"/>
       <c r="F68"/>
-      <c r="G68" s="24"/>
+      <c r="G68" s="28"/>
       <c r="K68" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="24"/>
-      <c r="R68" s="24"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="U68" s="28"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="28"/>
       <c r="F69"/>
-      <c r="G69" s="24"/>
+      <c r="G69" s="28"/>
       <c r="K69" t="s">
         <v>10</v>
       </c>
-      <c r="L69" s="24"/>
-      <c r="R69" s="24"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="U69" s="28"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="28"/>
       <c r="F70"/>
-      <c r="G70" s="24"/>
+      <c r="G70" s="28"/>
       <c r="K70" t="s">
         <v>10</v>
       </c>
-      <c r="L70" s="24"/>
-      <c r="R70" s="24"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="U70" s="28"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="28"/>
       <c r="F71"/>
-      <c r="G71" s="24"/>
+      <c r="G71" s="28"/>
       <c r="K71" t="s">
         <v>13</v>
       </c>
-      <c r="L71" s="24"/>
-      <c r="R71" s="24"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="U71" s="28"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="28"/>
       <c r="F72"/>
-      <c r="G72" s="24"/>
+      <c r="G72" s="28"/>
       <c r="K72" t="s">
         <v>21</v>
       </c>
-      <c r="L72" s="24"/>
-      <c r="R72" s="24"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="U72" s="28"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="28"/>
       <c r="F73"/>
-      <c r="G73" s="24"/>
+      <c r="G73" s="28"/>
       <c r="K73" t="s">
         <v>12</v>
       </c>
-      <c r="L73" s="24"/>
-      <c r="R73" s="24"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="U73" s="28"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="28"/>
       <c r="F74"/>
-      <c r="G74" s="24"/>
+      <c r="G74" s="28"/>
       <c r="K74" t="s">
         <v>10</v>
       </c>
-      <c r="L74" s="24"/>
-      <c r="R74" s="24"/>
+      <c r="L74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="U74" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="L1:L74"/>
     <mergeCell ref="G1:G74"/>
     <mergeCell ref="B1:B74"/>
     <mergeCell ref="R1:R74"/>
+    <mergeCell ref="U1:U74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4382,10 +5939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,60 +5959,67 @@
     <col min="26" max="26" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="Z1" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="2"/>
       <c r="E2" s="2">
         <v>44547</v>
@@ -4469,7 +6033,7 @@
       <c r="H2" s="2">
         <v>44548</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="2">
         <v>44553</v>
       </c>
@@ -4518,7 +6082,9 @@
       <c r="Y2" s="2">
         <v>44556</v>
       </c>
-      <c r="Z2" s="24"/>
+      <c r="Z2" s="28" t="s">
+        <v>222</v>
+      </c>
       <c r="AA2" s="2">
         <v>44558</v>
       </c>
@@ -4531,7 +6097,7 @@
       <c r="AD2" s="2">
         <v>44560</v>
       </c>
-      <c r="AE2" s="28">
+      <c r="AE2" s="23">
         <v>44561</v>
       </c>
       <c r="AF2" s="2">
@@ -4540,12 +6106,21 @@
       <c r="AG2" s="2">
         <v>44562</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="2">
+        <v>44563</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>44563</v>
+      </c>
+      <c r="AJ2" s="23">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
@@ -4564,7 +6139,7 @@
       <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1" t="s">
         <v>151</v>
       </c>
@@ -4613,7 +6188,7 @@
       <c r="Y3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="24"/>
+      <c r="Z3" s="28"/>
       <c r="AA3" s="1" t="s">
         <v>42</v>
       </c>
@@ -4626,7 +6201,7 @@
       <c r="AD3" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="AE3" s="29" t="s">
+      <c r="AE3" s="24" t="s">
         <v>204</v>
       </c>
       <c r="AF3" s="1" t="s">
@@ -4635,12 +6210,21 @@
       <c r="AG3" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="28"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -4659,7 +6243,7 @@
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="28"/>
       <c r="J4">
         <v>256</v>
       </c>
@@ -4706,18 +6290,18 @@
       <c r="Y4" t="s">
         <v>10</v>
       </c>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="28"/>
       <c r="AA4" t="s">
         <v>225</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC4">
         <v>32</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE4" s="5">
         <v>100</v>
@@ -4728,12 +6312,21 @@
       <c r="AG4" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +6345,7 @@
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="28"/>
       <c r="J5">
         <v>13</v>
       </c>
@@ -4797,18 +6390,18 @@
       <c r="Y5" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="28"/>
       <c r="AA5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AC5" s="3">
         <v>25</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE5" s="5">
         <v>45</v>
@@ -4819,12 +6412,21 @@
       <c r="AG5" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH5" s="3">
+        <v>350</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -4843,7 +6445,7 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="3">
         <v>38</v>
       </c>
@@ -4890,18 +6492,18 @@
       <c r="Y6" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="28"/>
       <c r="AA6" t="s">
         <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AC6">
         <v>45</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AE6" s="5">
         <v>11</v>
@@ -4910,12 +6512,21 @@
         <v>2</v>
       </c>
       <c r="AG6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7">
         <v>-15</v>
       </c>
@@ -4932,7 +6543,7 @@
         <v>75</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="3">
         <v>400</v>
       </c>
@@ -4976,7 +6587,7 @@
       <c r="Y7" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="24"/>
+      <c r="Z7" s="28"/>
       <c r="AA7" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +6596,7 @@
         <v>40</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE7" s="5">
         <v>43</v>
@@ -4996,12 +6607,21 @@
       <c r="AG7" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7">
+        <v>17</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -5020,7 +6640,7 @@
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="28"/>
       <c r="J8" t="s">
         <v>146</v>
       </c>
@@ -5064,7 +6684,7 @@
       <c r="Y8">
         <v>17</v>
       </c>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="28"/>
       <c r="AA8" s="3" t="s">
         <v>12</v>
       </c>
@@ -5075,7 +6695,7 @@
         <v>52</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE8" s="5">
         <v>108</v>
@@ -5086,12 +6706,21 @@
       <c r="AG8" s="3">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="5">
+        <v>1550</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="28"/>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -5110,7 +6739,7 @@
       <c r="H9">
         <v>25</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3">
         <v>80</v>
@@ -5151,12 +6780,12 @@
       <c r="Y9" t="s">
         <v>13</v>
       </c>
-      <c r="Z9" s="24"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" t="s">
         <v>13</v>
       </c>
-      <c r="AB9" s="27" t="s">
-        <v>230</v>
+      <c r="AB9" s="22" t="s">
+        <v>229</v>
       </c>
       <c r="AC9" s="3">
         <v>11</v>
@@ -5173,12 +6802,21 @@
       <c r="AG9" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="28"/>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -5197,7 +6835,7 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="3" t="s">
         <v>147</v>
       </c>
@@ -5240,12 +6878,12 @@
       <c r="Y10" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="24"/>
+      <c r="Z10" s="28"/>
       <c r="AA10" t="s">
         <v>10</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>10</v>
@@ -5262,12 +6900,21 @@
       <c r="AG10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="28"/>
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -5284,7 +6931,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="28"/>
       <c r="J11" t="s">
         <v>148</v>
       </c>
@@ -5322,7 +6969,7 @@
       <c r="Y11" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="24"/>
+      <c r="Z11" s="28"/>
       <c r="AA11">
         <v>14</v>
       </c>
@@ -5342,12 +6989,19 @@
       <c r="AG11" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="28"/>
       <c r="C12">
         <v>-1</v>
       </c>
@@ -5366,7 +7020,7 @@
       <c r="H12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="28"/>
       <c r="J12" t="s">
         <v>149</v>
       </c>
@@ -5406,7 +7060,7 @@
       <c r="Y12" t="s">
         <v>13</v>
       </c>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="28"/>
       <c r="AA12" t="s">
         <v>12</v>
       </c>
@@ -5428,12 +7082,19 @@
       <c r="AG12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI12">
+        <v>16</v>
+      </c>
+      <c r="AJ12" s="4"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5449,7 +7110,7 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="28"/>
       <c r="J13" t="s">
         <v>150</v>
       </c>
@@ -5487,7 +7148,7 @@
       <c r="Y13" t="s">
         <v>11</v>
       </c>
-      <c r="Z13" s="24"/>
+      <c r="Z13" s="28"/>
       <c r="AA13" t="s">
         <v>10</v>
       </c>
@@ -5500,12 +7161,16 @@
       <c r="AF13" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="28"/>
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -5522,7 +7187,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="4"/>
       <c r="K14" s="15" t="s">
         <v>154</v>
@@ -5556,7 +7221,7 @@
       <c r="Y14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="28"/>
       <c r="AA14" t="s">
         <v>13</v>
       </c>
@@ -5565,12 +7230,18 @@
       </c>
       <c r="AD14" s="4"/>
       <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" t="s">
         <v>21</v>
       </c>
@@ -5589,7 +7260,7 @@
       <c r="H15" s="3">
         <v>27</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
@@ -5622,25 +7293,31 @@
       <c r="Y15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z15" s="24"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" t="s">
         <v>11</v>
       </c>
       <c r="AB15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD15" s="5">
         <v>5</v>
       </c>
       <c r="AF15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3">
         <v>600</v>
       </c>
@@ -5655,7 +7332,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="28"/>
       <c r="J16" t="s">
         <v>13</v>
       </c>
@@ -5688,25 +7365,31 @@
       <c r="Y16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="28"/>
       <c r="AA16" t="s">
         <v>13</v>
       </c>
       <c r="AB16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="AF16" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="28"/>
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -5721,7 +7404,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="3" t="s">
         <v>13</v>
       </c>
@@ -5756,12 +7439,12 @@
       <c r="Y17" t="s">
         <v>10</v>
       </c>
-      <c r="Z17" s="24"/>
+      <c r="Z17" s="28"/>
       <c r="AA17" t="s">
         <v>11</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD17" s="5" t="s">
         <v>13</v>
@@ -5769,12 +7452,18 @@
       <c r="AF17" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="4"/>
       <c r="D18" t="s">
         <v>13</v>
@@ -5789,7 +7478,7 @@
       <c r="H18" s="3">
         <v>2525</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="28"/>
       <c r="K18">
         <v>160</v>
       </c>
@@ -5818,12 +7507,12 @@
       <c r="Y18" t="s">
         <v>10</v>
       </c>
-      <c r="Z18" s="24"/>
+      <c r="Z18" s="28"/>
       <c r="AA18" t="s">
         <v>11</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD18" s="5" t="s">
         <v>10</v>
@@ -5831,12 +7520,18 @@
       <c r="AF18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="28"/>
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -5855,7 +7550,7 @@
       <c r="H19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="28"/>
       <c r="K19">
         <v>20</v>
       </c>
@@ -5877,23 +7572,29 @@
       <c r="Y19" t="s">
         <v>13</v>
       </c>
-      <c r="Z19" s="24"/>
+      <c r="Z19" s="28"/>
       <c r="AA19" t="s">
         <v>11</v>
       </c>
       <c r="AB19" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD19" s="5"/>
       <c r="AF19" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" t="s">
         <v>12</v>
       </c>
@@ -5910,7 +7611,7 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="28"/>
       <c r="K20">
         <v>28</v>
       </c>
@@ -5930,7 +7631,7 @@
       <c r="Y20" t="s">
         <v>216</v>
       </c>
-      <c r="Z20" s="24"/>
+      <c r="Z20" s="28"/>
       <c r="AA20" t="s">
         <v>11</v>
       </c>
@@ -5938,12 +7639,18 @@
         <v>8</v>
       </c>
       <c r="AD20" s="5"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -5960,7 +7667,7 @@
       <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="24"/>
+      <c r="I21" s="28"/>
       <c r="K21">
         <v>200</v>
       </c>
@@ -5982,20 +7689,26 @@
       <c r="Y21">
         <v>15</v>
       </c>
-      <c r="Z21" s="24"/>
+      <c r="Z21" s="28"/>
       <c r="AA21" t="s">
         <v>13</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AD21" s="5"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -6014,7 +7727,7 @@
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="24"/>
+      <c r="I22" s="28"/>
       <c r="K22" t="s">
         <v>12</v>
       </c>
@@ -6027,18 +7740,24 @@
       <c r="Y22" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="24"/>
+      <c r="Z22" s="28"/>
       <c r="AA22" t="s">
         <v>11</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AD22" s="5"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="28"/>
       <c r="C23">
         <v>-70</v>
       </c>
@@ -6057,7 +7776,7 @@
       <c r="H23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="24"/>
+      <c r="I23" s="28"/>
       <c r="K23" t="s">
         <v>10</v>
       </c>
@@ -6070,7 +7789,7 @@
       <c r="Y23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Z23" s="24"/>
+      <c r="Z23" s="28"/>
       <c r="AA23" s="3" t="s">
         <v>13</v>
       </c>
@@ -6078,18 +7797,25 @@
         <v>13</v>
       </c>
       <c r="AD23" s="5"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AI23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="AC1:AI1"/>
+    <mergeCell ref="R1:AB1"/>
+    <mergeCell ref="Z2:Z23"/>
     <mergeCell ref="B1:B23"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="Z1:Z23"/>
-    <mergeCell ref="R1:U1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:I23"/>
@@ -6114,7 +7840,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6128,7 +7854,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -6137,7 +7863,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
@@ -6149,7 +7875,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -6158,7 +7884,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="8" t="s">
         <v>89</v>
       </c>
@@ -6167,7 +7893,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="8" t="s">
         <v>90</v>
       </c>
@@ -6176,7 +7902,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="8" t="s">
         <v>91</v>
       </c>
@@ -6185,7 +7911,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="8" t="s">
         <v>92</v>
       </c>
@@ -6194,7 +7920,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8" t="s">
         <v>93</v>
       </c>
@@ -6203,7 +7929,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8" t="s">
         <v>94</v>
       </c>
@@ -6212,7 +7938,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8" t="s">
         <v>95</v>
       </c>
@@ -6221,7 +7947,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -6230,7 +7956,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>96</v>
       </c>
@@ -6240,7 +7966,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -6249,7 +7975,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="28"/>
       <c r="B15" t="s">
         <v>98</v>
       </c>
@@ -6259,7 +7985,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="28"/>
       <c r="B16">
         <v>3</v>
       </c>
@@ -6268,7 +7994,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -6277,7 +8003,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -6286,7 +8012,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -6295,7 +8021,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -6304,7 +8030,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21">
         <v>6</v>
       </c>
@@ -6313,7 +8039,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22">
         <v>7</v>
       </c>
@@ -6322,7 +8048,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" t="s">
         <v>83</v>
       </c>
@@ -6331,7 +8057,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="8" t="s">
         <v>101</v>
       </c>
@@ -6340,7 +8066,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8" t="s">
         <v>102</v>
       </c>
@@ -6349,7 +8075,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8" t="s">
         <v>103</v>
       </c>
@@ -6358,7 +8084,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8" t="s">
         <v>104</v>
       </c>
@@ -6367,7 +8093,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8" t="s">
         <v>105</v>
       </c>
@@ -6376,7 +8102,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8" t="s">
         <v>106</v>
       </c>
@@ -6385,7 +8111,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8" t="s">
         <v>107</v>
       </c>
@@ -6394,7 +8120,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8" t="s">
         <v>108</v>
       </c>
@@ -6403,7 +8129,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8" t="s">
         <v>109</v>
       </c>
@@ -6412,7 +8138,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8" t="s">
         <v>110</v>
       </c>
@@ -6421,7 +8147,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
         <v>111</v>
       </c>
@@ -6430,7 +8156,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" t="s">
         <v>86</v>
       </c>
@@ -6439,7 +8165,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+      <c r="A36" s="28"/>
       <c r="B36" t="s">
         <v>112</v>
       </c>
@@ -6448,7 +8174,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="28"/>
       <c r="B37" t="s">
         <v>113</v>
       </c>
@@ -6457,7 +8183,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="28"/>
       <c r="B38" t="s">
         <v>114</v>
       </c>
@@ -6466,7 +8192,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" t="s">
         <v>114</v>
       </c>
@@ -6475,7 +8201,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40">
         <v>10</v>
       </c>
@@ -6484,7 +8210,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41">
         <v>11</v>
       </c>
@@ -6493,7 +8219,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42">
         <v>12</v>
       </c>
@@ -6502,7 +8228,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+      <c r="A43" s="28"/>
       <c r="B43">
         <v>13</v>
       </c>
@@ -6511,7 +8237,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="28"/>
       <c r="B44" t="s">
         <v>115</v>
       </c>
@@ -6520,7 +8246,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="28"/>
       <c r="B45" t="s">
         <v>116</v>
       </c>
@@ -6529,7 +8255,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" t="s">
         <v>117</v>
       </c>
@@ -6538,7 +8264,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+      <c r="A47" s="28"/>
       <c r="B47" t="s">
         <v>118</v>
       </c>
@@ -6547,7 +8273,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+      <c r="A48" s="28"/>
       <c r="B48" t="s">
         <v>119</v>
       </c>
@@ -6556,7 +8282,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="28"/>
       <c r="B49" t="s">
         <v>120</v>
       </c>
@@ -6565,7 +8291,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50">
         <v>15</v>
       </c>
@@ -6583,4 +8309,254 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44572</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>